--- a/Technology/Software/dLocal.xlsx
+++ b/Technology/Software/dLocal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AB2309-D71B-5546-ACFF-8FFFA7190394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382E5A3D-FC56-8741-AEA6-7113F299FBC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -568,18 +568,25 @@
   </si>
   <si>
     <t>Share Dilution (3yr)</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -748,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -868,65 +875,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -990,86 +944,73 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="13" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="13" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="13" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1122,7 +1063,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>DLO</a:t>
+              <a:t>dLocal</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2104,15 +2045,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
+      <xdr:colOff>15875</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>65087</xdr:rowOff>
+      <xdr:rowOff>31751</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>63499</xdr:rowOff>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>31751</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2158,12 +2099,13 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="Treasuries"/>
       <sheetName val="All Stars"/>
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
-      <sheetName val="7 Powers"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
       <sheetName val="Compounders"/>
       <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
@@ -2180,14 +2122,14 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
+      <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.7229999999999999E-2</v>
+            <v>3.8539999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
@@ -2195,6 +2137,7 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2322,34 +2265,37 @@
     <v>Powered by Refinitiv</v>
     <v>33.630000000000003</v>
     <v>9.0330999999999992</v>
-    <v>2.2650000000000001</v>
-    <v>-6.5000000000000002E-2</v>
-    <v>-5.2129999999999998E-3</v>
+    <v>2.2679999999999998</v>
+    <v>0.13500000000000001</v>
+    <v>1.1185E-2</v>
+    <v>-0.17499999999999999</v>
+    <v>-1.4338E-2</v>
     <v>USD</v>
     <v>Dlocal Ltd, an Uruguay-based company, is focused on enabling global merchants to connect with emerging market users. The Company offers payment platform for emerging markets. Through the Company's direct application programming interface (API), one technology platform, and one contract, which is collectively referred as the One dLocal model. The Company enables global enterprise merchants to get paid (pay-in) and to make payments (pay-out) online in a safe and efficient manner. The Company's cloud-based platform powers both cross-border and local-to-local transactions in approximately 29 countries. The Company enables global merchants to connect with over 600 local payment methods across different geographies, which expands their addressable markets. It operates in different verticals and geographies. The Company's key verticals include retail, streaming, ride hailing, financial institutions, advertising, software as a service (SaaS), travel, e-learning and gaming.</v>
-    <v>726</v>
+    <v>763</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>Dr Luis Bonavita, 1294, MONTEVIDEO, URUGUAY-NA, 11300 UY</v>
-    <v>12.55</v>
+    <v>12.27</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45099.994432881249</v>
+    <v>45107.84077099531</v>
     <v>0</v>
-    <v>12.175000000000001</v>
-    <v>3644540620</v>
+    <v>12.01</v>
+    <v>3585781400</v>
     <v>dLocal Ltd</v>
     <v>dLocal Ltd</v>
-    <v>12.49</v>
-    <v>33.2378</v>
-    <v>12.47</v>
-    <v>12.404999999999999</v>
+    <v>12.15</v>
+    <v>32.340200000000003</v>
+    <v>12.07</v>
+    <v>12.205</v>
+    <v>12.03</v>
     <v>293796100</v>
     <v>DLO</v>
     <v>dLocal Ltd (XNAS:DLO)</v>
-    <v>1195969</v>
-    <v>2708009</v>
+    <v>470020</v>
+    <v>2484046</v>
     <v>2021</v>
   </rv>
   <rv s="2">
@@ -2381,6 +2327,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2401,6 +2349,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2417,7 +2366,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2428,13 +2377,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2500,13 +2452,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2551,6 +2509,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2558,6 +2519,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2918,9 +2882,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E105" sqref="E105"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3404,15 +3368,15 @@
       </c>
       <c r="L16" s="27">
         <f>M101/E3</f>
-        <v>8.6997448708002629</v>
+        <v>8.5594829623440951</v>
       </c>
       <c r="M16" s="27">
         <f>M101/E28</f>
-        <v>33.533677024005591</v>
+        <v>32.993029268606868</v>
       </c>
       <c r="N16" s="28">
         <f>M101/E107</f>
-        <v>25.647897733270465</v>
+        <v>25.234388700835332</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3498,15 +3462,15 @@
       </c>
       <c r="L19" s="27">
         <f>M101/F3</f>
-        <v>5.7484867823343846</v>
+        <v>5.6558066246056784</v>
       </c>
       <c r="M19" s="27">
         <f>M101/F28</f>
-        <v>20.532623211267605</v>
+        <v>20.201585352112676</v>
       </c>
       <c r="N19" s="28">
         <f>M101/F105</f>
-        <v>19.627076979846336</v>
+        <v>19.310638818096411</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3550,7 +3514,7 @@
         <v>0.6686002994011977</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3586,6 +3550,12 @@
         <f t="shared" si="12"/>
         <v>0.39264641127256716</v>
       </c>
+      <c r="M21" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="N21" s="22" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="22" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -3603,6 +3573,14 @@
       <c r="E22" s="10">
         <v>127910000</v>
       </c>
+      <c r="M22" s="62">
+        <f>(-1*E98)/M101</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="63">
+        <f>E107/M101</f>
+        <v>3.9628461456127806E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -4722,10 +4700,10 @@
       <c r="E83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L83" s="69" t="s">
+      <c r="L83" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="M83" s="70"/>
+      <c r="M83" s="66"/>
     </row>
     <row r="84" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4743,10 +4721,10 @@
       <c r="E84" s="1">
         <v>130714000</v>
       </c>
-      <c r="L84" s="71" t="s">
+      <c r="L84" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="M84" s="72"/>
+      <c r="M84" s="67"/>
     </row>
     <row r="85" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4764,10 +4742,10 @@
       <c r="E85" s="1">
         <v>-109935000</v>
       </c>
-      <c r="L85" s="35" t="s">
+      <c r="L85" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="M85" s="36">
+      <c r="M85" s="41">
         <f>E17</f>
         <v>24668000</v>
       </c>
@@ -4788,10 +4766,10 @@
       <c r="E86" s="1">
         <v>-3442000</v>
       </c>
-      <c r="L86" s="35" t="s">
+      <c r="L86" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="M86" s="36">
+      <c r="M86" s="41">
         <f>E56</f>
         <v>686000</v>
       </c>
@@ -4812,10 +4790,10 @@
       <c r="E87" s="10">
         <v>154451000</v>
       </c>
-      <c r="L87" s="35" t="s">
+      <c r="L87" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="M87" s="36">
+      <c r="M87" s="41">
         <f>E61</f>
         <v>3393000</v>
       </c>
@@ -4836,10 +4814,10 @@
       <c r="E88" s="1">
         <v>-12352000</v>
       </c>
-      <c r="L88" s="37" t="s">
+      <c r="L88" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="M88" s="38">
+      <c r="M88" s="43">
         <f>M85/(M86+M87)</f>
         <v>6.0475606766364303</v>
       </c>
@@ -4864,10 +4842,10 @@
         <f>(-1*E88)/E3</f>
         <v>2.9484991346899803E-2</v>
       </c>
-      <c r="L89" s="35" t="s">
+      <c r="L89" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="M89" s="36">
+      <c r="M89" s="41">
         <f>E27</f>
         <v>11586000</v>
       </c>
@@ -4888,10 +4866,10 @@
       <c r="E90" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L90" s="35" t="s">
+      <c r="L90" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="M90" s="36">
+      <c r="M90" s="41">
         <f>E25</f>
         <v>120283000</v>
       </c>
@@ -4912,10 +4890,10 @@
       <c r="E91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L91" s="37" t="s">
+      <c r="L91" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="M91" s="38">
+      <c r="M91" s="43">
         <f>M89/M90</f>
         <v>9.6322838638876654E-2</v>
       </c>
@@ -4936,10 +4914,10 @@
       <c r="E92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L92" s="39" t="s">
+      <c r="L92" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="M92" s="40">
+      <c r="M92" s="43">
         <f>M88*(1-M91)</f>
         <v>5.4650424654219636</v>
       </c>
@@ -4960,10 +4938,10 @@
       <c r="E93" s="1">
         <v>5292000</v>
       </c>
-      <c r="L93" s="71" t="s">
+      <c r="L93" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="M93" s="72"/>
+      <c r="M93" s="67"/>
     </row>
     <row r="94" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -4981,12 +4959,12 @@
       <c r="E94" s="10">
         <v>4305000</v>
       </c>
-      <c r="L94" s="35" t="s">
+      <c r="L94" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="M94" s="41">
+      <c r="M94" s="44">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7229999999999999E-2</v>
+        <v>3.8539999999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5005,12 +4983,12 @@
       <c r="E95" s="1">
         <v>-20353000</v>
       </c>
-      <c r="L95" s="42" t="s">
+      <c r="L95" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="M95" s="43" cm="1">
+      <c r="M95" s="46" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>2.2650000000000001</v>
+        <v>2.2679999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5029,10 +5007,10 @@
       <c r="E96" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L96" s="35" t="s">
+      <c r="L96" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="M96" s="41">
+      <c r="M96" s="44">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -5052,12 +5030,12 @@
       <c r="E97" s="1">
         <v>-2021000</v>
       </c>
-      <c r="L97" s="39" t="s">
+      <c r="L97" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="M97" s="40">
+      <c r="M97" s="43">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.14316405000000001</v>
+        <v>0.14164328000000001</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5073,13 +5051,13 @@
       <c r="D98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L98" s="71" t="s">
+      <c r="E98" s="1">
+        <v>0</v>
+      </c>
+      <c r="L98" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="M98" s="72"/>
+      <c r="M98" s="67"/>
     </row>
     <row r="99" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5097,10 +5075,10 @@
       <c r="E99" s="1">
         <v>-4953000</v>
       </c>
-      <c r="L99" s="35" t="s">
+      <c r="L99" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="M99" s="36">
+      <c r="M99" s="41">
         <f>M86+M87</f>
         <v>4079000</v>
       </c>
@@ -5121,12 +5099,12 @@
       <c r="E100" s="10">
         <v>-27327000</v>
       </c>
-      <c r="L100" s="37" t="s">
+      <c r="L100" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="M100" s="38">
+      <c r="M100" s="43">
         <f>M99/M103</f>
-        <v>1.1179570426143792E-3</v>
+        <v>1.136255883376412E-3</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5145,12 +5123,12 @@
       <c r="E101" s="1">
         <v>466000</v>
       </c>
-      <c r="L101" s="42" t="s">
+      <c r="L101" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="M101" s="44" cm="1">
+      <c r="M101" s="47" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>3644540620</v>
+        <v>3585781400</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5169,12 +5147,12 @@
       <c r="E102" s="10">
         <v>131895000</v>
       </c>
-      <c r="L102" s="37" t="s">
+      <c r="L102" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="M102" s="38">
+      <c r="M102" s="43">
         <f>M101/M103</f>
-        <v>0.99888204295738559</v>
+        <v>0.9988637441166236</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5193,12 +5171,12 @@
       <c r="E103" s="1">
         <v>336197000</v>
       </c>
-      <c r="L103" s="39" t="s">
+      <c r="L103" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="M103" s="45">
+      <c r="M103" s="48">
         <f>M99+M101</f>
-        <v>3648619620</v>
+        <v>3589860400</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5217,10 +5195,10 @@
       <c r="E104" s="11">
         <v>468092000</v>
       </c>
-      <c r="L104" s="71" t="s">
+      <c r="L104" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="M104" s="72"/>
+      <c r="M104" s="67"/>
     </row>
     <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="16" t="s">
@@ -5242,35 +5220,35 @@
         <f>(E22*(1-$M$91))+E77+E88+E81</f>
         <v>132163345.70970128</v>
       </c>
-      <c r="F105" s="46">
+      <c r="F105" s="35">
         <f>E105*(1+$M$106)</f>
         <v>185689424.04120198</v>
       </c>
-      <c r="G105" s="46">
+      <c r="G105" s="35">
         <f t="shared" ref="G105:J105" si="26">F105*(1+$M$106)</f>
         <v>260893533.04122898</v>
       </c>
-      <c r="H105" s="46">
+      <c r="H105" s="35">
         <f t="shared" si="26"/>
         <v>366555262.55298221</v>
       </c>
-      <c r="I105" s="46">
+      <c r="I105" s="35">
         <f t="shared" si="26"/>
         <v>515009931.21225578</v>
       </c>
-      <c r="J105" s="46">
+      <c r="J105" s="35">
         <f t="shared" si="26"/>
         <v>723588654.54541147</v>
       </c>
-      <c r="K105" s="47" t="s">
+      <c r="K105" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="L105" s="48" t="s">
+      <c r="L105" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="M105" s="49">
+      <c r="M105" s="50">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.14911368145445844</v>
+        <v>0.14769202364399692</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5293,22 +5271,22 @@
         <f t="shared" ref="E106" si="30">(E107/D107)-1</f>
         <v>1.349947907192115</v>
       </c>
-      <c r="F106" s="50">
+      <c r="F106" s="37">
         <v>255100000</v>
       </c>
-      <c r="G106" s="50">
+      <c r="G106" s="37">
         <v>317700000</v>
       </c>
-      <c r="H106" s="50">
+      <c r="H106" s="37">
         <v>394000000</v>
       </c>
-      <c r="I106" s="50">
+      <c r="I106" s="37">
         <v>669300000</v>
       </c>
-      <c r="J106" s="50">
+      <c r="J106" s="37">
         <v>987700000</v>
       </c>
-      <c r="K106" s="47" t="s">
+      <c r="K106" s="36" t="s">
         <v>150</v>
       </c>
       <c r="L106" s="51" t="s">
@@ -5335,21 +5313,21 @@
       <c r="E107" s="1">
         <v>142099000</v>
       </c>
-      <c r="F107" s="47"/>
-      <c r="G107" s="47"/>
-      <c r="H107" s="47"/>
-      <c r="I107" s="47"/>
-      <c r="J107" s="53">
+      <c r="F107" s="36"/>
+      <c r="G107" s="36"/>
+      <c r="H107" s="36"/>
+      <c r="I107" s="36"/>
+      <c r="J107" s="38">
         <f>J106*(1+M107)/(M108-M107)</f>
-        <v>8156977443.0668335</v>
-      </c>
-      <c r="K107" s="54" t="s">
+        <v>8251494024.8891582</v>
+      </c>
+      <c r="K107" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="L107" s="55" t="s">
+      <c r="L107" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="M107" s="56">
+      <c r="M107" s="54">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -5359,120 +5337,120 @@
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
       <c r="E108" s="13"/>
-      <c r="F108" s="53">
+      <c r="F108" s="38">
         <f t="shared" ref="F108:I108" si="31">F107+F106</f>
         <v>255100000</v>
       </c>
-      <c r="G108" s="53">
+      <c r="G108" s="38">
         <f t="shared" si="31"/>
         <v>317700000</v>
       </c>
-      <c r="H108" s="53">
+      <c r="H108" s="38">
         <f t="shared" si="31"/>
         <v>394000000</v>
       </c>
-      <c r="I108" s="53">
+      <c r="I108" s="38">
         <f t="shared" si="31"/>
         <v>669300000</v>
       </c>
-      <c r="J108" s="53">
+      <c r="J108" s="38">
         <f>J107+J106</f>
-        <v>9144677443.0668335</v>
-      </c>
-      <c r="K108" s="54" t="s">
+        <v>9239194024.8891582</v>
+      </c>
+      <c r="K108" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="L108" s="57" t="s">
+      <c r="L108" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="M108" s="58">
+      <c r="M108" s="52">
         <f>M105</f>
-        <v>0.14911368145445844</v>
+        <v>0.14769202364399692</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F109" s="67" t="s">
+      <c r="F109" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="G109" s="68"/>
+      <c r="G109" s="64"/>
     </row>
     <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F110" s="59" t="s">
+      <c r="F110" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="G110" s="44">
+      <c r="G110" s="47">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>5670194246.1651049</v>
+        <v>5749741115.6296377</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F111" s="59" t="s">
+      <c r="F111" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="G111" s="44">
+      <c r="G111" s="47">
         <f>E40</f>
         <v>469387000</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F112" s="59" t="s">
+      <c r="F112" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="G112" s="44">
+      <c r="G112" s="47">
         <f>M99</f>
         <v>4079000</v>
       </c>
     </row>
     <row r="113" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F113" s="59" t="s">
+      <c r="F113" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="G113" s="44">
+      <c r="G113" s="47">
         <f>G110+G111-G112</f>
-        <v>6135502246.1651049</v>
+        <v>6215049115.6296377</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F114" s="59" t="s">
+      <c r="F114" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="G114" s="60">
+      <c r="G114" s="56">
         <f>E34*(1+(K16*5))</f>
         <v>348782722.99763072</v>
       </c>
     </row>
     <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F115" s="61" t="s">
+      <c r="F115" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="G115" s="62">
+      <c r="G115" s="58">
         <f>G113/G114</f>
-        <v>17.591187411558753</v>
+        <v>17.819257393869986</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F116" s="59" t="s">
+      <c r="F116" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="G116" s="63" cm="1">
+      <c r="G116" s="59" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>12.404999999999999</v>
+        <v>12.205</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F117" s="64" t="s">
+      <c r="F117" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="G117" s="65">
+      <c r="G117" s="60">
         <f>G115/G116-1</f>
-        <v>0.41807234272944416</v>
+        <v>0.45999650912494761</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F118" s="64" t="s">
+      <c r="F118" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="G118" s="66" t="str">
+      <c r="G118" s="61" t="str">
         <f>IF(G115&gt;G116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>

--- a/Technology/Software/dLocal.xlsx
+++ b/Technology/Software/dLocal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382E5A3D-FC56-8741-AEA6-7113F299FBC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0BE055-799D-7748-AF7A-B8BF6D96698C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2090,7 +2090,6 @@
     <sheetNames>
       <sheetName val="Factor Scoring"/>
       <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2104,10 +2103,12 @@
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
       <sheetName val="My Holdings"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Short List"/>
       <sheetName val="Stable Growth"/>
       <sheetName val="High Growth"/>
+      <sheetName val="Small Caps"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
@@ -2121,14 +2122,14 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
+      <sheetData sheetId="10">
         <row r="8">
           <cell r="C8">
-            <v>3.8539999999999998E-2</v>
+            <v>4.0410000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
@@ -2138,6 +2139,7 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2265,11 +2267,11 @@
     <v>Powered by Refinitiv</v>
     <v>33.630000000000003</v>
     <v>9.0330999999999992</v>
-    <v>2.2679999999999998</v>
-    <v>0.13500000000000001</v>
-    <v>1.1185E-2</v>
-    <v>-0.17499999999999999</v>
-    <v>-1.4338E-2</v>
+    <v>2.266</v>
+    <v>0.13</v>
+    <v>1.0888E-2</v>
+    <v>-0.24</v>
+    <v>-1.9883999999999999E-2</v>
     <v>USD</v>
     <v>Dlocal Ltd, an Uruguay-based company, is focused on enabling global merchants to connect with emerging market users. The Company offers payment platform for emerging markets. Through the Company's direct application programming interface (API), one technology platform, and one contract, which is collectively referred as the One dLocal model. The Company enables global enterprise merchants to get paid (pay-in) and to make payments (pay-out) online in a safe and efficient manner. The Company's cloud-based platform powers both cross-border and local-to-local transactions in approximately 29 countries. The Company enables global merchants to connect with over 600 local payment methods across different geographies, which expands their addressable markets. It operates in different verticals and geographies. The Company's key verticals include retail, streaming, ride hailing, financial institutions, advertising, software as a service (SaaS), travel, e-learning and gaming.</v>
     <v>763</v>
@@ -2277,25 +2279,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>Dr Luis Bonavita, 1294, MONTEVIDEO, URUGUAY-NA, 11300 UY</v>
-    <v>12.27</v>
+    <v>12.32</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45107.84077099531</v>
+    <v>45114.965876446091</v>
     <v>0</v>
-    <v>12.01</v>
-    <v>3585781400</v>
+    <v>11.94</v>
+    <v>3546119000</v>
     <v>dLocal Ltd</v>
     <v>dLocal Ltd</v>
-    <v>12.15</v>
-    <v>32.340200000000003</v>
+    <v>11.96</v>
+    <v>31.991900000000001</v>
+    <v>11.94</v>
     <v>12.07</v>
-    <v>12.205</v>
-    <v>12.03</v>
+    <v>11.83</v>
     <v>293796100</v>
     <v>DLO</v>
     <v>dLocal Ltd (XNAS:DLO)</v>
-    <v>470020</v>
-    <v>2484046</v>
+    <v>940042</v>
+    <v>1957353</v>
     <v>2021</v>
   </rv>
   <rv s="2">
@@ -2882,9 +2884,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G98" sqref="G98"/>
+      <selection pane="topRight" activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3368,15 +3370,15 @@
       </c>
       <c r="L16" s="27">
         <f>M101/E3</f>
-        <v>8.5594829623440951</v>
+        <v>8.4648063495852472</v>
       </c>
       <c r="M16" s="27">
         <f>M101/E28</f>
-        <v>32.993029268606868</v>
+        <v>32.628092709991442</v>
       </c>
       <c r="N16" s="28">
         <f>M101/E107</f>
-        <v>25.234388700835332</v>
+        <v>24.955270621186639</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3462,15 +3464,15 @@
       </c>
       <c r="L19" s="27">
         <f>M101/F3</f>
-        <v>5.6558066246056784</v>
+        <v>5.5932476340694004</v>
       </c>
       <c r="M19" s="27">
         <f>M101/F28</f>
-        <v>20.201585352112676</v>
+        <v>19.978135211267606</v>
       </c>
       <c r="N19" s="28">
         <f>M101/F105</f>
-        <v>19.310638818096411</v>
+        <v>19.097043454737435</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3579,7 +3581,7 @@
       </c>
       <c r="N22" s="63">
         <f>E107/M101</f>
-        <v>3.9628461456127806E-2</v>
+        <v>4.0071695281517626E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -4964,7 +4966,7 @@
       </c>
       <c r="M94" s="44">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.8539999999999998E-2</v>
+        <v>4.0410000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4988,7 +4990,7 @@
       </c>
       <c r="M95" s="46" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>2.2679999999999998</v>
+        <v>2.266</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5035,7 +5037,7 @@
       </c>
       <c r="M97" s="43">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.14164328000000001</v>
+        <v>0.13918494000000001</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5104,7 +5106,7 @@
       </c>
       <c r="M100" s="43">
         <f>M99/M103</f>
-        <v>1.136255883376412E-3</v>
+        <v>1.148950002225228E-3</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5128,7 +5130,7 @@
       </c>
       <c r="M101" s="47" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>3585781400</v>
+        <v>3546119000</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5152,7 +5154,7 @@
       </c>
       <c r="M102" s="43">
         <f>M101/M103</f>
-        <v>0.9988637441166236</v>
+        <v>0.99885104999777474</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5176,7 +5178,7 @@
       </c>
       <c r="M103" s="48">
         <f>M99+M101</f>
-        <v>3589860400</v>
+        <v>3550198000</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5248,7 +5250,7 @@
       </c>
       <c r="M105" s="50">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.14769202364399692</v>
+        <v>0.14530408401568481</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5319,7 +5321,7 @@
       <c r="I107" s="36"/>
       <c r="J107" s="38">
         <f>J106*(1+M107)/(M108-M107)</f>
-        <v>8251494024.8891582</v>
+        <v>8415279566.6355581</v>
       </c>
       <c r="K107" s="39" t="s">
         <v>152</v>
@@ -5355,7 +5357,7 @@
       </c>
       <c r="J108" s="38">
         <f>J107+J106</f>
-        <v>9239194024.8891582</v>
+        <v>9402979566.6355591</v>
       </c>
       <c r="K108" s="39" t="s">
         <v>146</v>
@@ -5365,7 +5367,7 @@
       </c>
       <c r="M108" s="52">
         <f>M105</f>
-        <v>0.14769202364399692</v>
+        <v>0.14530408401568481</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5380,7 +5382,7 @@
       </c>
       <c r="G110" s="47">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>5749741115.6296377</v>
+        <v>5887758313.1546698</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5407,7 +5409,7 @@
       </c>
       <c r="G113" s="47">
         <f>G110+G111-G112</f>
-        <v>6215049115.6296377</v>
+        <v>6353066313.1546698</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5425,7 +5427,7 @@
       </c>
       <c r="G115" s="58">
         <f>G113/G114</f>
-        <v>17.819257393869986</v>
+        <v>18.214968501171505</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5434,7 +5436,7 @@
       </c>
       <c r="G116" s="59" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>12.205</v>
+        <v>12.07</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5443,7 +5445,7 @@
       </c>
       <c r="G117" s="60">
         <f>G115/G116-1</f>
-        <v>0.45999650912494761</v>
+        <v>0.50911089487750649</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/dLocal.xlsx
+++ b/Technology/Software/dLocal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0BE055-799D-7748-AF7A-B8BF6D96698C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DECAD2-494C-2442-8D21-B3F0EB722463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -880,7 +880,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1001,6 +1001,7 @@
     <xf numFmtId="169" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2088,8 +2089,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2098,21 +2098,22 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
       <sheetName val="Short List"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="Small Caps"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2122,24 +2123,12 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
-        <row r="8">
-          <cell r="C8">
-            <v>4.0410000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2268,10 +2257,8 @@
     <v>33.630000000000003</v>
     <v>9.0330999999999992</v>
     <v>2.266</v>
-    <v>0.13</v>
-    <v>1.0888E-2</v>
-    <v>-0.24</v>
-    <v>-1.9883999999999999E-2</v>
+    <v>0.08</v>
+    <v>6.6279999999999993E-3</v>
     <v>USD</v>
     <v>Dlocal Ltd, an Uruguay-based company, is focused on enabling global merchants to connect with emerging market users. The Company offers payment platform for emerging markets. Through the Company's direct application programming interface (API), one technology platform, and one contract, which is collectively referred as the One dLocal model. The Company enables global enterprise merchants to get paid (pay-in) and to make payments (pay-out) online in a safe and efficient manner. The Company's cloud-based platform powers both cross-border and local-to-local transactions in approximately 29 countries. The Company enables global merchants to connect with over 600 local payment methods across different geographies, which expands their addressable markets. It operates in different verticals and geographies. The Company's key verticals include retail, streaming, ride hailing, financial institutions, advertising, software as a service (SaaS), travel, e-learning and gaming.</v>
     <v>763</v>
@@ -2279,25 +2266,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>Dr Luis Bonavita, 1294, MONTEVIDEO, URUGUAY-NA, 11300 UY</v>
-    <v>12.32</v>
+    <v>12.17</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45114.965876446091</v>
+    <v>45117.851725902343</v>
     <v>0</v>
-    <v>11.94</v>
-    <v>3546119000</v>
+    <v>11.9</v>
+    <v>3569622615</v>
     <v>dLocal Ltd</v>
     <v>dLocal Ltd</v>
-    <v>11.96</v>
-    <v>31.991900000000001</v>
-    <v>11.94</v>
     <v>12.07</v>
-    <v>11.83</v>
+    <v>32.554499999999997</v>
+    <v>12.07</v>
+    <v>12.15</v>
     <v>293796100</v>
     <v>DLO</v>
     <v>dLocal Ltd (XNAS:DLO)</v>
-    <v>940042</v>
-    <v>1957353</v>
+    <v>679998</v>
+    <v>1888999</v>
     <v>2021</v>
   </rv>
   <rv s="2">
@@ -2329,8 +2315,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2351,7 +2335,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2368,7 +2351,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2379,16 +2362,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2454,19 +2434,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2511,9 +2485,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2521,9 +2492,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2884,9 +2852,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G99" sqref="G99"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3004,19 +2972,19 @@
       <c r="A4" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="15" t="e">
+      <c r="B4" s="64" t="e">
         <f t="shared" ref="B4" si="0">(B3/A3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="64">
         <f t="shared" ref="C4" si="1">(C3/B3)-1</f>
         <v>0.88361156830472609</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="64">
         <f t="shared" ref="D4" si="2">(D3/C3)-1</f>
         <v>1.3440845760156708</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="64">
         <f t="shared" ref="E4:J4" si="3">(E3/D3)-1</f>
         <v>0.71606177289857453</v>
       </c>
@@ -3370,15 +3338,15 @@
       </c>
       <c r="L16" s="27">
         <f>M101/E3</f>
-        <v>8.4648063495852472</v>
+        <v>8.5209109387121806</v>
       </c>
       <c r="M16" s="27">
         <f>M101/E28</f>
-        <v>32.628092709991442</v>
+        <v>32.844351140472753</v>
       </c>
       <c r="N16" s="28">
         <f>M101/E107</f>
-        <v>24.955270621186639</v>
+        <v>25.120673720434343</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3464,15 +3432,15 @@
       </c>
       <c r="L19" s="27">
         <f>M101/F3</f>
-        <v>5.5932476340694004</v>
+        <v>5.6303195820189273</v>
       </c>
       <c r="M19" s="27">
         <f>M101/F28</f>
-        <v>19.978135211267606</v>
+        <v>20.110549943661972</v>
       </c>
       <c r="N19" s="28">
         <f>M101/F105</f>
-        <v>19.097043454737435</v>
+        <v>19.22361832630785</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3581,7 +3549,7 @@
       </c>
       <c r="N22" s="63">
         <f>E107/M101</f>
-        <v>4.0071695281517626E-2</v>
+        <v>3.9807849547703521E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -4702,10 +4670,10 @@
       <c r="E83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L83" s="65" t="s">
+      <c r="L83" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="M83" s="66"/>
+      <c r="M83" s="67"/>
     </row>
     <row r="84" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4723,10 +4691,10 @@
       <c r="E84" s="1">
         <v>130714000</v>
       </c>
-      <c r="L84" s="67" t="s">
+      <c r="L84" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="M84" s="67"/>
+      <c r="M84" s="68"/>
     </row>
     <row r="85" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4940,10 +4908,10 @@
       <c r="E93" s="1">
         <v>5292000</v>
       </c>
-      <c r="L93" s="67" t="s">
+      <c r="L93" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="M93" s="67"/>
+      <c r="M93" s="68"/>
     </row>
     <row r="94" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -4966,7 +4934,7 @@
       </c>
       <c r="M94" s="44">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0410000000000001E-2</v>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5037,7 +5005,7 @@
       </c>
       <c r="M97" s="43">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.13918494000000001</v>
+        <v>0.13909632</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5056,10 +5024,10 @@
       <c r="E98" s="1">
         <v>0</v>
       </c>
-      <c r="L98" s="67" t="s">
+      <c r="L98" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="M98" s="67"/>
+      <c r="M98" s="68"/>
     </row>
     <row r="99" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5106,7 +5074,7 @@
       </c>
       <c r="M100" s="43">
         <f>M99/M103</f>
-        <v>1.148950002225228E-3</v>
+        <v>1.1413935575592257E-3</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5130,7 +5098,7 @@
       </c>
       <c r="M101" s="47" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>3546119000</v>
+        <v>3569622615</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5154,7 +5122,7 @@
       </c>
       <c r="M102" s="43">
         <f>M101/M103</f>
-        <v>0.99885104999777474</v>
+        <v>0.99885860644244073</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5178,7 +5146,7 @@
       </c>
       <c r="M103" s="48">
         <f>M99+M101</f>
-        <v>3550198000</v>
+        <v>3573701615</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5197,10 +5165,10 @@
       <c r="E104" s="11">
         <v>468092000</v>
       </c>
-      <c r="L104" s="67" t="s">
+      <c r="L104" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="M104" s="67"/>
+      <c r="M104" s="68"/>
     </row>
     <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="16" t="s">
@@ -5250,7 +5218,7 @@
       </c>
       <c r="M105" s="50">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.14530408401568481</v>
+        <v>0.145175320618292</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5321,7 +5289,7 @@
       <c r="I107" s="36"/>
       <c r="J107" s="38">
         <f>J106*(1+M107)/(M108-M107)</f>
-        <v>8415279566.6355581</v>
+        <v>8424296226.4741621</v>
       </c>
       <c r="K107" s="39" t="s">
         <v>152</v>
@@ -5357,7 +5325,7 @@
       </c>
       <c r="J108" s="38">
         <f>J107+J106</f>
-        <v>9402979566.6355591</v>
+        <v>9411996226.4741631</v>
       </c>
       <c r="K108" s="39" t="s">
         <v>146</v>
@@ -5367,14 +5335,14 @@
       </c>
       <c r="M108" s="52">
         <f>M105</f>
-        <v>0.14530408401568481</v>
+        <v>0.145175320618292</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F109" s="64" t="s">
+      <c r="F109" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="G109" s="64"/>
+      <c r="G109" s="65"/>
     </row>
     <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="F110" s="56" t="s">
@@ -5382,7 +5350,7 @@
       </c>
       <c r="G110" s="47">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>5887758313.1546698</v>
+        <v>5895362567.4282913</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5409,7 +5377,7 @@
       </c>
       <c r="G113" s="47">
         <f>G110+G111-G112</f>
-        <v>6353066313.1546698</v>
+        <v>6360670567.4282913</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5427,7 +5395,7 @@
       </c>
       <c r="G115" s="58">
         <f>G113/G114</f>
-        <v>18.214968501171505</v>
+        <v>18.236770768807546</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5436,7 +5404,7 @@
       </c>
       <c r="G116" s="59" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>12.07</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5445,7 +5413,7 @@
       </c>
       <c r="G117" s="60">
         <f>G115/G116-1</f>
-        <v>0.50911089487750649</v>
+        <v>0.50096878755617658</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/dLocal.xlsx
+++ b/Technology/Software/dLocal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DECAD2-494C-2442-8D21-B3F0EB722463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576AF460-3132-8749-9EEC-2D52A18C3A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2099,6 +2099,7 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
@@ -2110,7 +2111,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0480000000000002E-2</v>
+            <v>3.9120000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2129,6 +2130,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2256,9 +2258,11 @@
     <v>Powered by Refinitiv</v>
     <v>33.630000000000003</v>
     <v>9.0330999999999992</v>
-    <v>2.266</v>
-    <v>0.08</v>
-    <v>6.6279999999999993E-3</v>
+    <v>2.278</v>
+    <v>0.52500000000000002</v>
+    <v>3.5460999999999999E-2</v>
+    <v>-0.08</v>
+    <v>-5.2190000000000005E-3</v>
     <v>USD</v>
     <v>Dlocal Ltd, an Uruguay-based company, is focused on enabling global merchants to connect with emerging market users. The Company offers payment platform for emerging markets. Through the Company's direct application programming interface (API), one technology platform, and one contract, which is collectively referred as the One dLocal model. The Company enables global enterprise merchants to get paid (pay-in) and to make payments (pay-out) online in a safe and efficient manner. The Company's cloud-based platform powers both cross-border and local-to-local transactions in approximately 29 countries. The Company enables global merchants to connect with over 600 local payment methods across different geographies, which expands their addressable markets. It operates in different verticals and geographies. The Company's key verticals include retail, streaming, ride hailing, financial institutions, advertising, software as a service (SaaS), travel, e-learning and gaming.</v>
     <v>763</v>
@@ -2266,24 +2270,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>Dr Luis Bonavita, 1294, MONTEVIDEO, URUGUAY-NA, 11300 UY</v>
-    <v>12.17</v>
+    <v>15.555</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45117.851725902343</v>
+    <v>45132.89549770781</v>
     <v>0</v>
-    <v>11.9</v>
-    <v>3569622615</v>
+    <v>14.91</v>
+    <v>4503894213</v>
     <v>dLocal Ltd</v>
     <v>dLocal Ltd</v>
-    <v>12.07</v>
-    <v>32.554499999999997</v>
-    <v>12.07</v>
-    <v>12.15</v>
+    <v>15.17</v>
+    <v>39.668300000000002</v>
+    <v>14.805</v>
+    <v>15.33</v>
+    <v>15.25</v>
     <v>293796100</v>
     <v>DLO</v>
     <v>dLocal Ltd (XNAS:DLO)</v>
-    <v>679998</v>
-    <v>1888999</v>
+    <v>1066869</v>
+    <v>928493</v>
     <v>2021</v>
   </rv>
   <rv s="2">
@@ -2315,6 +2320,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2335,6 +2342,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2351,7 +2359,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2362,13 +2370,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2434,13 +2445,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2485,6 +2502,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2492,6 +2512,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2852,9 +2875,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3338,15 +3361,15 @@
       </c>
       <c r="L16" s="27">
         <f>M101/E3</f>
-        <v>8.5209109387121806</v>
+        <v>10.751075283165244</v>
       </c>
       <c r="M16" s="27">
         <f>M101/E28</f>
-        <v>32.844351140472753</v>
+        <v>41.440650451312536</v>
       </c>
       <c r="N16" s="28">
         <f>M101/E107</f>
-        <v>25.120673720434343</v>
+        <v>31.695467336152962</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3432,15 +3455,15 @@
       </c>
       <c r="L19" s="27">
         <f>M101/F3</f>
-        <v>5.6303195820189273</v>
+        <v>7.1039340899053629</v>
       </c>
       <c r="M19" s="27">
         <f>M101/F28</f>
-        <v>20.110549943661972</v>
+        <v>25.374051904225354</v>
       </c>
       <c r="N19" s="28">
         <f>M101/F105</f>
-        <v>19.22361832630785</v>
+        <v>24.254985098131634</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3549,7 +3572,7 @@
       </c>
       <c r="N22" s="63">
         <f>E107/M101</f>
-        <v>3.9807849547703521E-2</v>
+        <v>3.1550252576947019E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -4934,7 +4957,7 @@
       </c>
       <c r="M94" s="44">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4958,7 +4981,7 @@
       </c>
       <c r="M95" s="46" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>2.266</v>
+        <v>2.278</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5005,7 +5028,7 @@
       </c>
       <c r="M97" s="43">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.13909632</v>
+        <v>0.14135664000000001</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5074,7 +5097,7 @@
       </c>
       <c r="M100" s="43">
         <f>M99/M103</f>
-        <v>1.1413935575592257E-3</v>
+        <v>9.0484122404211806E-4</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5098,7 +5121,7 @@
       </c>
       <c r="M101" s="47" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>3569622615</v>
+        <v>4503894213</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5122,7 +5145,7 @@
       </c>
       <c r="M102" s="43">
         <f>M101/M103</f>
-        <v>0.99885860644244073</v>
+        <v>0.99909515877595789</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5146,7 +5169,7 @@
       </c>
       <c r="M103" s="48">
         <f>M99+M101</f>
-        <v>3573701615</v>
+        <v>4507973213</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5218,7 +5241,7 @@
       </c>
       <c r="M105" s="50">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.145175320618292</v>
+        <v>0.1461737303986905</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5289,7 +5312,7 @@
       <c r="I107" s="36"/>
       <c r="J107" s="38">
         <f>J106*(1+M107)/(M108-M107)</f>
-        <v>8424296226.4741621</v>
+        <v>8354884319.1423321</v>
       </c>
       <c r="K107" s="39" t="s">
         <v>152</v>
@@ -5325,7 +5348,7 @@
       </c>
       <c r="J108" s="38">
         <f>J107+J106</f>
-        <v>9411996226.4741631</v>
+        <v>9342584319.1423321</v>
       </c>
       <c r="K108" s="39" t="s">
         <v>146</v>
@@ -5335,7 +5358,7 @@
       </c>
       <c r="M108" s="52">
         <f>M105</f>
-        <v>0.145175320618292</v>
+        <v>0.1461737303986905</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5350,7 +5373,7 @@
       </c>
       <c r="G110" s="47">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>5895362567.4282913</v>
+        <v>5836840089.4433689</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5377,7 +5400,7 @@
       </c>
       <c r="G113" s="47">
         <f>G110+G111-G112</f>
-        <v>6360670567.4282913</v>
+        <v>6302148089.4433689</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5395,7 +5418,7 @@
       </c>
       <c r="G115" s="58">
         <f>G113/G114</f>
-        <v>18.236770768807546</v>
+        <v>18.068980124013137</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5404,7 +5427,7 @@
       </c>
       <c r="G116" s="59" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>12.15</v>
+        <v>15.33</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5413,7 +5436,7 @@
       </c>
       <c r="G117" s="60">
         <f>G115/G116-1</f>
-        <v>0.50096878755617658</v>
+        <v>0.1786679793876802</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/dLocal.xlsx
+++ b/Technology/Software/dLocal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576AF460-3132-8749-9EEC-2D52A18C3A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17026646-37AE-1C4C-80F6-EEF652C50107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -519,9 +519,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Unlevered FCF Proj</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -573,7 +570,13 @@
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
+  </si>
+  <si>
+    <t>5Y Fwd Income CAGR</t>
   </si>
 </sst>
 </file>
@@ -588,7 +591,7 @@
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -700,6 +703,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -880,7 +890,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -911,7 +921,6 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -944,56 +953,23 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="13" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="169" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1002,17 +978,108 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="13" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1021,6 +1088,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEFD3F3"/>
+      <color rgb="FFA7719C"/>
+      <color rgb="FFFFAEED"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1066,7 +1140,6 @@
               <a:rPr lang="en-US" sz="2400"/>
               <a:t>dLocal</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1103,15 +1176,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.7260674098905954E-2"/>
-          <c:y val="0.13650410451853537"/>
-          <c:w val="0.85673272524102817"/>
-          <c:h val="0.69441249533664162"/>
+          <c:x val="9.3152317880794686E-2"/>
+          <c:y val="0.14444704908619851"/>
+          <c:w val="0.83797350993377484"/>
+          <c:h val="0.64737213782395298"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1160,12 +1233,48 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$E$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$J$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>55289000</c:v>
                 </c:pt>
@@ -1178,12 +1287,27 @@
                 <c:pt idx="3">
                   <c:v>418925000</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>633000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>880000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1143000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1522000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1827000000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-502B-D144-8D93-920CF44CADDE}"/>
+              <c16:uniqueId val="{00000000-4E57-884A-AD0F-7383239A2D28}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1234,12 +1358,48 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$28:$E$28</c:f>
+              <c:f>'Sheet 1'!$B$28:$J$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>15602000</c:v>
                 </c:pt>
@@ -1252,12 +1412,27 @@
                 <c:pt idx="3">
                   <c:v>108683000</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>178000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>243900000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>320200000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>424000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>595000000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-502B-D144-8D93-920CF44CADDE}"/>
+              <c16:uniqueId val="{00000001-4E57-884A-AD0F-7383239A2D28}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1308,12 +1483,48 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$107:$E$107</c:f>
+              <c:f>'Sheet 1'!$B$107:$J$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>29017000</c:v>
                 </c:pt>
@@ -1326,12 +1537,27 @@
                 <c:pt idx="3">
                   <c:v>142099000</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>269000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>352000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>422000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>632100000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>777000000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-502B-D144-8D93-920CF44CADDE}"/>
+              <c16:uniqueId val="{00000002-4E57-884A-AD0F-7383239A2D28}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1343,13 +1569,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="1270671807"/>
-        <c:axId val="1270574479"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2044623328"/>
+        <c:axId val="2044698880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1270671807"/>
+        <c:axId val="2044623328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1377,7 +1603,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1389,7 +1615,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1270574479"/>
+        <c:crossAx val="2044698880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1397,7 +1623,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1270574479"/>
+        <c:axId val="2044698880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1445,7 +1671,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1270671807"/>
+        <c:crossAx val="2044623328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1463,10 +1689,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35921031158233929"/>
-          <c:y val="0.91000759437863354"/>
-          <c:w val="0.31326254515215302"/>
-          <c:h val="5.6762910825249271E-2"/>
+          <c:x val="0.34417458413724772"/>
+          <c:y val="0.89600773603044948"/>
+          <c:w val="0.31429983834802105"/>
+          <c:h val="6.3635254768592511E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1573,7 +1799,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1811,7 +2037,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2046,22 +2271,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>31751</xdr:rowOff>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>49212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>31751</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1603374</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF9A3FB8-A957-24D1-42BF-831D841B45DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813DBC95-63A5-7007-8DCA-19B86C5AD8BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2089,38 +2314,38 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Treasuries"/>
+      <sheetName val="Software"/>
       <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
       <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>3.9120000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.9020000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
@@ -2256,39 +2481,39 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>33.630000000000003</v>
+    <v>24.65</v>
     <v>9.0330999999999992</v>
-    <v>2.278</v>
-    <v>0.52500000000000002</v>
-    <v>3.5460999999999999E-2</v>
-    <v>-0.08</v>
-    <v>-5.2190000000000005E-3</v>
+    <v>2.1280000000000001</v>
+    <v>7.0000000000000007E-2</v>
+    <v>3.836E-3</v>
+    <v>0.03</v>
+    <v>1.6379999999999999E-3</v>
     <v>USD</v>
     <v>Dlocal Ltd, an Uruguay-based company, is focused on enabling global merchants to connect with emerging market users. The Company offers payment platform for emerging markets. Through the Company's direct application programming interface (API), one technology platform, and one contract, which is collectively referred as the One dLocal model. The Company enables global enterprise merchants to get paid (pay-in) and to make payments (pay-out) online in a safe and efficient manner. The Company's cloud-based platform powers both cross-border and local-to-local transactions in approximately 29 countries. The Company enables global merchants to connect with over 600 local payment methods across different geographies, which expands their addressable markets. It operates in different verticals and geographies. The Company's key verticals include retail, streaming, ride hailing, financial institutions, advertising, software as a service (SaaS), travel, e-learning and gaming.</v>
-    <v>763</v>
+    <v>806</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>Dr Luis Bonavita, 1294, MONTEVIDEO, URUGUAY-NA, 11300 UY</v>
-    <v>15.555</v>
+    <v>18.57</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45132.89549770781</v>
+    <v>45218.892663390623</v>
     <v>0</v>
-    <v>14.91</v>
-    <v>4503894213</v>
+    <v>18.033999999999999</v>
+    <v>5304700728</v>
     <v>dLocal Ltd</v>
     <v>dLocal Ltd</v>
-    <v>15.17</v>
-    <v>39.668300000000002</v>
-    <v>14.805</v>
-    <v>15.33</v>
-    <v>15.25</v>
-    <v>293796100</v>
+    <v>18.170000000000002</v>
+    <v>43.377000000000002</v>
+    <v>18.25</v>
+    <v>18.32</v>
+    <v>18.350000000000001</v>
+    <v>289557900</v>
     <v>DLO</v>
     <v>dLocal Ltd (XNAS:DLO)</v>
-    <v>1066869</v>
-    <v>928493</v>
+    <v>1181230</v>
+    <v>969269</v>
     <v>2021</v>
   </rv>
   <rv s="2">
@@ -2873,11 +3098,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2963,31 +3188,31 @@
       <c r="E3" s="1">
         <v>418925000</v>
       </c>
-      <c r="F3" s="20">
-        <v>634000000</v>
-      </c>
-      <c r="G3" s="20">
-        <v>874100000</v>
-      </c>
-      <c r="H3" s="20">
-        <v>1122000000</v>
-      </c>
-      <c r="I3" s="20">
-        <v>1682000000</v>
-      </c>
-      <c r="J3" s="20">
-        <v>2271000000</v>
-      </c>
-      <c r="K3" s="21" t="s">
+      <c r="F3" s="43">
+        <v>633000000</v>
+      </c>
+      <c r="G3" s="43">
+        <v>880000000</v>
+      </c>
+      <c r="H3" s="43">
+        <v>1143000000</v>
+      </c>
+      <c r="I3" s="43">
+        <v>1522000000</v>
+      </c>
+      <c r="J3" s="43">
+        <v>1827000000</v>
+      </c>
+      <c r="K3" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="N3" s="21" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2995,55 +3220,55 @@
       <c r="A4" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="64" t="e">
+      <c r="B4" s="42" t="e">
         <f t="shared" ref="B4" si="0">(B3/A3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C4" s="64">
+      <c r="C4" s="42">
         <f t="shared" ref="C4" si="1">(C3/B3)-1</f>
         <v>0.88361156830472609</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="42">
         <f t="shared" ref="D4" si="2">(D3/C3)-1</f>
         <v>1.3440845760156708</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="42">
         <f t="shared" ref="E4:J4" si="3">(E3/D3)-1</f>
         <v>0.71606177289857453</v>
       </c>
       <c r="F4" s="15">
         <f t="shared" si="3"/>
-        <v>0.51339738616697494</v>
+        <v>0.51101032404368318</v>
       </c>
       <c r="G4" s="15">
         <f t="shared" si="3"/>
-        <v>0.37870662460567828</v>
+        <v>0.39020537124802535</v>
       </c>
       <c r="H4" s="15">
         <f t="shared" si="3"/>
-        <v>0.2836059947374443</v>
+        <v>0.29886363636363633</v>
       </c>
       <c r="I4" s="15">
         <f t="shared" si="3"/>
-        <v>0.49910873440285197</v>
+        <v>0.3315835520559931</v>
       </c>
       <c r="J4" s="15">
         <f t="shared" si="3"/>
-        <v>0.3501783590963139</v>
-      </c>
-      <c r="K4" s="23">
+        <v>0.20039421813403413</v>
+      </c>
+      <c r="K4" s="22">
         <f>(E4+D4+C4)/3</f>
         <v>0.98125263907299054</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="22">
         <f>(E20+D20+C20)/3</f>
         <v>1.0331372176178213</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="22">
         <f>(E29+D29+C29)/3</f>
         <v>0.988384504709094</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="22">
         <f>(E106+D106+C106)/3</f>
         <v>0.99344927720379983</v>
       </c>
@@ -3081,16 +3306,16 @@
       <c r="E6" s="10">
         <v>202167000</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="51" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3110,21 +3335,21 @@
       <c r="E7" s="2">
         <v>0.48259999999999997</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="22">
         <f>E7</f>
         <v>0.48259999999999997</v>
       </c>
-      <c r="L7" s="24">
-        <f>E21</f>
-        <v>0.35920000000000002</v>
-      </c>
-      <c r="M7" s="24">
-        <f>E30</f>
-        <v>0.25940000000000002</v>
-      </c>
-      <c r="N7" s="24">
-        <f>E107/E3</f>
-        <v>0.33919914065763562</v>
+      <c r="L7" s="23">
+        <f>F21</f>
+        <v>0.32859399684044233</v>
+      </c>
+      <c r="M7" s="23">
+        <f>F30</f>
+        <v>0.28120063191153238</v>
+      </c>
+      <c r="N7" s="23">
+        <f>F107/F3</f>
+        <v>0.42496050552922593</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3164,16 +3389,16 @@
         <f t="shared" ref="E9" si="5">E8/E3</f>
         <v>1.5153070358656083E-2</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="L9" s="22" t="s">
+      <c r="L9" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="M9" s="22" t="s">
+      <c r="M9" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="N9" s="22" t="s">
+      <c r="N9" s="21" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3193,19 +3418,19 @@
       <c r="E10" s="1">
         <v>48343000</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="22">
         <f>E9</f>
         <v>1.5153070358656083E-2</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="23">
         <f>E13</f>
         <v>0.1472292176403891</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="23">
         <f>E80</f>
         <v>2.0729247478665631E-2</v>
       </c>
-      <c r="N10" s="24">
+      <c r="N10" s="23">
         <f>E89</f>
         <v>2.9484991346899803E-2</v>
       </c>
@@ -3243,16 +3468,16 @@
       <c r="E12" s="1">
         <v>61678000</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="K12" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="L12" s="22" t="s">
+      <c r="L12" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="M12" s="22" t="s">
+      <c r="M12" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="N12" s="22" t="s">
+      <c r="N12" s="21" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3276,19 +3501,19 @@
         <f t="shared" ref="E13" si="7">E12/E3</f>
         <v>0.1472292176403891</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="22">
         <f>E28/E72</f>
         <v>0.27195974266131839</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="23">
         <f>E28/E54</f>
         <v>0.13152955157987223</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M13" s="23">
         <f>E22/(E72+E56+E61)</f>
         <v>0.31683791255065541</v>
       </c>
-      <c r="N13" s="25">
+      <c r="N13" s="24">
         <f>E67/E72</f>
         <v>1.0676927850581415</v>
       </c>
@@ -3326,16 +3551,16 @@
       <c r="E15" s="1">
         <v>68723000</v>
       </c>
-      <c r="K15" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="L15" s="22" t="s">
+      <c r="K15" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="M15" s="22" t="s">
+      <c r="M15" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="N15" s="22" t="s">
+      <c r="N15" s="21" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3355,21 +3580,21 @@
       <c r="E16" s="1">
         <v>285481000</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="25">
         <f>(E35+D35+C35)/3</f>
         <v>2.2765431963205324E-2</v>
       </c>
-      <c r="L16" s="27">
-        <f>M101/E3</f>
-        <v>10.751075283165244</v>
-      </c>
-      <c r="M16" s="27">
-        <f>M101/E28</f>
-        <v>41.440650451312536</v>
-      </c>
-      <c r="N16" s="28">
-        <f>M101/E107</f>
-        <v>31.695467336152962</v>
+      <c r="L16" s="26">
+        <f>M102/E3</f>
+        <v>12.662650183207019</v>
+      </c>
+      <c r="M16" s="26">
+        <f>M102/E28</f>
+        <v>48.808928056825813</v>
+      </c>
+      <c r="N16" s="27">
+        <f>M102/E107</f>
+        <v>37.331020823510372</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3405,16 +3630,16 @@
       <c r="E18" s="1">
         <v>22575000</v>
       </c>
-      <c r="K18" s="21" t="s">
+      <c r="K18" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="L18" s="22" t="s">
+      <c r="L18" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="M18" s="22" t="s">
+      <c r="M18" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="N18" s="22" t="s">
+      <c r="N18" s="21" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3434,36 +3659,36 @@
       <c r="E19" s="10">
         <v>150485000</v>
       </c>
-      <c r="F19" s="29">
-        <v>207800000</v>
-      </c>
-      <c r="G19" s="29">
+      <c r="F19" s="28">
+        <v>208000000</v>
+      </c>
+      <c r="G19" s="28">
         <v>271900000</v>
       </c>
-      <c r="H19" s="29">
-        <v>360100000</v>
-      </c>
-      <c r="I19" s="29">
-        <v>534400000</v>
-      </c>
-      <c r="J19" s="29">
-        <v>891700000</v>
-      </c>
-      <c r="K19" s="30">
+      <c r="H19" s="28">
+        <v>363000000</v>
+      </c>
+      <c r="I19" s="28">
+        <v>525000000</v>
+      </c>
+      <c r="J19" s="28">
+        <v>721000000</v>
+      </c>
+      <c r="K19" s="29">
         <f>E40-E56-E61</f>
         <v>465308000</v>
       </c>
-      <c r="L19" s="27">
-        <f>M101/F3</f>
-        <v>7.1039340899053629</v>
-      </c>
-      <c r="M19" s="27">
-        <f>M101/F28</f>
-        <v>25.374051904225354</v>
-      </c>
-      <c r="N19" s="28">
-        <f>M101/F105</f>
-        <v>24.254985098131634</v>
+      <c r="L19" s="26">
+        <f>M102/F3</f>
+        <v>8.3802539146919433</v>
+      </c>
+      <c r="M19" s="26">
+        <f>M102/F28</f>
+        <v>29.801689483146067</v>
+      </c>
+      <c r="N19" s="27">
+        <f>M102/F105</f>
+        <v>12482808776.297398</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3488,23 +3713,23 @@
       </c>
       <c r="F20" s="15">
         <f t="shared" si="11"/>
-        <v>0.38086852510216973</v>
+        <v>0.38219756121872606</v>
       </c>
       <c r="G20" s="15">
         <f t="shared" si="11"/>
-        <v>0.30846968238691042</v>
+        <v>0.30721153846153837</v>
       </c>
       <c r="H20" s="15">
         <f t="shared" si="11"/>
-        <v>0.32438396469290187</v>
+        <v>0.33504965060684078</v>
       </c>
       <c r="I20" s="15">
         <f t="shared" si="11"/>
-        <v>0.48403221327409063</v>
+        <v>0.44628099173553726</v>
       </c>
       <c r="J20" s="15">
         <f t="shared" si="11"/>
-        <v>0.6686002994011977</v>
+        <v>0.37333333333333329</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -3523,30 +3748,33 @@
       <c r="E21" s="2">
         <v>0.35920000000000002</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="30">
         <f>F19/F3</f>
-        <v>0.32776025236593059</v>
-      </c>
-      <c r="G21" s="31">
+        <v>0.32859399684044233</v>
+      </c>
+      <c r="G21" s="30">
         <f t="shared" ref="G21:J21" si="12">G19/G3</f>
-        <v>0.31106280745910081</v>
-      </c>
-      <c r="H21" s="31">
+        <v>0.30897727272727271</v>
+      </c>
+      <c r="H21" s="30">
         <f t="shared" si="12"/>
-        <v>0.32094474153297681</v>
-      </c>
-      <c r="I21" s="31">
+        <v>0.31758530183727035</v>
+      </c>
+      <c r="I21" s="30">
         <f t="shared" si="12"/>
-        <v>0.31771700356718191</v>
-      </c>
-      <c r="J21" s="31">
+        <v>0.34494086727989487</v>
+      </c>
+      <c r="J21" s="30">
         <f t="shared" si="12"/>
-        <v>0.39264641127256716</v>
-      </c>
-      <c r="M21" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="N21" s="22" t="s">
+        <v>0.3946360153256705</v>
+      </c>
+      <c r="L21" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="N21" s="21" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3566,13 +3794,17 @@
       <c r="E22" s="10">
         <v>127910000</v>
       </c>
-      <c r="M22" s="62">
-        <f>(-1*E98)/M101</f>
+      <c r="L22" s="22">
+        <f>SUM(F29:J29)/5</f>
+        <v>0.4096645530620121</v>
+      </c>
+      <c r="M22" s="40">
+        <f>(-1*E98)/M102</f>
         <v>0</v>
       </c>
-      <c r="N22" s="63">
-        <f>E107/M101</f>
-        <v>3.1550252576947019E-2</v>
+      <c r="N22" s="41">
+        <f>F107/M102</f>
+        <v>5.0709741000114716E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3676,20 +3908,20 @@
       <c r="E28" s="11">
         <v>108683000</v>
       </c>
-      <c r="F28" s="32">
-        <v>177500000</v>
-      </c>
-      <c r="G28" s="32">
+      <c r="F28" s="31">
+        <v>178000000</v>
+      </c>
+      <c r="G28" s="31">
         <v>243900000</v>
       </c>
-      <c r="H28" s="32">
+      <c r="H28" s="31">
         <v>320200000</v>
       </c>
-      <c r="I28" s="32">
-        <v>421300000</v>
-      </c>
-      <c r="J28" s="32">
-        <v>729800000</v>
+      <c r="I28" s="31">
+        <v>424000000</v>
+      </c>
+      <c r="J28" s="31">
+        <v>595000000</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="20" thickTop="1" x14ac:dyDescent="0.25">
@@ -3714,11 +3946,11 @@
       </c>
       <c r="F29" s="15">
         <f t="shared" si="16"/>
-        <v>0.63319010332802739</v>
+        <v>0.6377906388303598</v>
       </c>
       <c r="G29" s="15">
         <f t="shared" si="16"/>
-        <v>0.3740845070422536</v>
+        <v>0.37022471910112364</v>
       </c>
       <c r="H29" s="15">
         <f t="shared" si="16"/>
@@ -3726,11 +3958,11 @@
       </c>
       <c r="I29" s="15">
         <f t="shared" si="16"/>
-        <v>0.315740162398501</v>
+        <v>0.32417239225484074</v>
       </c>
       <c r="J29" s="15">
         <f t="shared" si="16"/>
-        <v>0.73225729883693336</v>
+        <v>0.40330188679245293</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3749,25 +3981,25 @@
       <c r="E30" s="2">
         <v>0.25940000000000002</v>
       </c>
-      <c r="F30" s="33">
+      <c r="F30" s="32">
         <f>F28/F3</f>
-        <v>0.27996845425867506</v>
-      </c>
-      <c r="G30" s="33">
+        <v>0.28120063191153238</v>
+      </c>
+      <c r="G30" s="32">
         <f t="shared" ref="G30:J30" si="17">G28/G3</f>
-        <v>0.27902985928383478</v>
-      </c>
-      <c r="H30" s="33">
+        <v>0.27715909090909091</v>
+      </c>
+      <c r="H30" s="32">
         <f t="shared" si="17"/>
-        <v>0.28538324420677363</v>
-      </c>
-      <c r="I30" s="33">
+        <v>0.28013998250218725</v>
+      </c>
+      <c r="I30" s="32">
         <f t="shared" si="17"/>
-        <v>0.25047562425683711</v>
-      </c>
-      <c r="J30" s="33">
+        <v>0.27858081471747698</v>
+      </c>
+      <c r="J30" s="32">
         <f t="shared" si="17"/>
-        <v>0.32135623073535885</v>
+        <v>0.32567049808429116</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3786,20 +4018,20 @@
       <c r="E31" s="12">
         <v>0.37</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31" s="33">
         <v>0.6</v>
       </c>
-      <c r="G31" s="34">
+      <c r="G31" s="33">
         <v>0.83</v>
       </c>
-      <c r="H31" s="34">
+      <c r="H31" s="33">
         <v>1.0900000000000001</v>
       </c>
-      <c r="I31" s="34">
-        <v>1.43</v>
-      </c>
-      <c r="J31" s="34">
-        <v>2.48</v>
+      <c r="I31" s="33">
+        <v>1.44</v>
+      </c>
+      <c r="J31" s="33">
+        <v>2.02</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3819,7 +4051,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
@@ -3835,8 +4067,12 @@
       <c r="E33" s="1">
         <v>295624000</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F33" s="1" cm="1">
+        <f t="array" ref="F33">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>289557900</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
@@ -3852,8 +4088,12 @@
       <c r="E34" s="1">
         <v>313139000</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F34" s="1" cm="1">
+        <f t="array" ref="F34">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>289557900</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>99</v>
       </c>
@@ -3870,11 +4110,15 @@
         <v>5.4672847670046029E-2</v>
       </c>
       <c r="E35" s="18">
-        <f t="shared" ref="E35" si="21">(E34-D34)/D34</f>
+        <f t="shared" ref="E35:F35" si="21">(E34-D34)/D34</f>
         <v>1.3623448219569938E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F35" s="18">
+        <f t="shared" si="21"/>
+        <v>-7.5305535241538102E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
@@ -3891,7 +4135,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -3908,7 +4152,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
@@ -3925,7 +4169,7 @@
         <v>468092000</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
@@ -3942,7 +4186,7 @@
         <v>1295000</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
@@ -3959,7 +4203,7 @@
         <v>469387000</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
@@ -3976,7 +4220,7 @@
         <v>240446000</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
@@ -3993,7 +4237,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>35</v>
       </c>
@@ -4010,7 +4254,7 @@
         <v>56789000</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
@@ -4027,7 +4271,7 @@
         <v>767828000</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
@@ -4044,7 +4288,7 @@
         <v>6668000</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
@@ -4061,7 +4305,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>39</v>
       </c>
@@ -4078,7 +4322,7 @@
         <v>51443000</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
@@ -4677,7 +4921,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -4693,12 +4937,8 @@
       <c r="E83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L83" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="M83" s="67"/>
-    </row>
-    <row r="84" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -4714,12 +4954,18 @@
       <c r="E84" s="1">
         <v>130714000</v>
       </c>
-      <c r="L84" s="68" t="s">
-        <v>128</v>
-      </c>
-      <c r="M84" s="68"/>
-    </row>
-    <row r="85" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F84" s="55"/>
+      <c r="G84" s="55"/>
+      <c r="H84" s="55"/>
+      <c r="I84" s="55"/>
+      <c r="J84" s="55"/>
+      <c r="K84" s="55"/>
+      <c r="L84" s="73" t="s">
+        <v>127</v>
+      </c>
+      <c r="M84" s="74"/>
+    </row>
+    <row r="85" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -4735,13 +4981,16 @@
       <c r="E85" s="1">
         <v>-109935000</v>
       </c>
-      <c r="L85" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="M85" s="41">
-        <f>E17</f>
-        <v>24668000</v>
-      </c>
+      <c r="F85" s="55"/>
+      <c r="G85" s="55"/>
+      <c r="H85" s="55"/>
+      <c r="I85" s="55"/>
+      <c r="J85" s="55"/>
+      <c r="K85" s="55"/>
+      <c r="L85" s="75" t="s">
+        <v>128</v>
+      </c>
+      <c r="M85" s="75"/>
     </row>
     <row r="86" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -4759,12 +5008,18 @@
       <c r="E86" s="1">
         <v>-3442000</v>
       </c>
-      <c r="L86" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="M86" s="41">
-        <f>E56</f>
-        <v>686000</v>
+      <c r="F86" s="55"/>
+      <c r="G86" s="55"/>
+      <c r="H86" s="55"/>
+      <c r="I86" s="55"/>
+      <c r="J86" s="55"/>
+      <c r="K86" s="55"/>
+      <c r="L86" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="M86" s="56">
+        <f>E17</f>
+        <v>24668000</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4783,12 +5038,18 @@
       <c r="E87" s="10">
         <v>154451000</v>
       </c>
-      <c r="L87" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="M87" s="41">
-        <f>E61</f>
-        <v>3393000</v>
+      <c r="F87" s="55"/>
+      <c r="G87" s="55"/>
+      <c r="H87" s="55"/>
+      <c r="I87" s="55"/>
+      <c r="J87" s="55"/>
+      <c r="K87" s="55"/>
+      <c r="L87" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="M87" s="56">
+        <f>E56</f>
+        <v>686000</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4807,12 +5068,18 @@
       <c r="E88" s="1">
         <v>-12352000</v>
       </c>
-      <c r="L88" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="M88" s="43">
-        <f>M85/(M86+M87)</f>
-        <v>6.0475606766364303</v>
+      <c r="F88" s="55"/>
+      <c r="G88" s="55"/>
+      <c r="H88" s="55"/>
+      <c r="I88" s="55"/>
+      <c r="J88" s="55"/>
+      <c r="K88" s="55"/>
+      <c r="L88" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="M88" s="56">
+        <f>E61</f>
+        <v>3393000</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4835,12 +5102,18 @@
         <f>(-1*E88)/E3</f>
         <v>2.9484991346899803E-2</v>
       </c>
-      <c r="L89" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="M89" s="41">
-        <f>E27</f>
-        <v>11586000</v>
+      <c r="F89" s="55"/>
+      <c r="G89" s="55"/>
+      <c r="H89" s="55"/>
+      <c r="I89" s="55"/>
+      <c r="J89" s="55"/>
+      <c r="K89" s="55"/>
+      <c r="L89" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="M89" s="57">
+        <f>M86/(M87+M88)</f>
+        <v>6.0475606766364303</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4859,12 +5132,18 @@
       <c r="E90" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L90" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="M90" s="41">
-        <f>E25</f>
-        <v>120283000</v>
+      <c r="F90" s="55"/>
+      <c r="G90" s="55"/>
+      <c r="H90" s="55"/>
+      <c r="I90" s="55"/>
+      <c r="J90" s="55"/>
+      <c r="K90" s="55"/>
+      <c r="L90" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="M90" s="56">
+        <f>E27</f>
+        <v>11586000</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4883,12 +5162,18 @@
       <c r="E91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L91" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="M91" s="43">
-        <f>M89/M90</f>
-        <v>9.6322838638876654E-2</v>
+      <c r="F91" s="55"/>
+      <c r="G91" s="55"/>
+      <c r="H91" s="55"/>
+      <c r="I91" s="55"/>
+      <c r="J91" s="55"/>
+      <c r="K91" s="55"/>
+      <c r="L91" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="M91" s="56">
+        <f>E25</f>
+        <v>120283000</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4907,15 +5192,21 @@
       <c r="E92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L92" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="M92" s="43">
-        <f>M88*(1-M91)</f>
-        <v>5.4650424654219636</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="F92" s="55"/>
+      <c r="G92" s="55"/>
+      <c r="H92" s="55"/>
+      <c r="I92" s="55"/>
+      <c r="J92" s="55"/>
+      <c r="K92" s="55"/>
+      <c r="L92" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="M92" s="57">
+        <f>M90/M91</f>
+        <v>9.6322838638876654E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -4931,12 +5222,21 @@
       <c r="E93" s="1">
         <v>5292000</v>
       </c>
-      <c r="L93" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="M93" s="68"/>
-    </row>
-    <row r="94" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F93" s="55"/>
+      <c r="G93" s="55"/>
+      <c r="H93" s="55"/>
+      <c r="I93" s="55"/>
+      <c r="J93" s="55"/>
+      <c r="K93" s="55"/>
+      <c r="L93" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="M93" s="57">
+        <f>M89*(1-M92)</f>
+        <v>5.4650424654219636</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -4952,13 +5252,16 @@
       <c r="E94" s="10">
         <v>4305000</v>
       </c>
-      <c r="L94" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="M94" s="44">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
-      </c>
+      <c r="F94" s="55"/>
+      <c r="G94" s="55"/>
+      <c r="H94" s="55"/>
+      <c r="I94" s="55"/>
+      <c r="J94" s="55"/>
+      <c r="K94" s="55"/>
+      <c r="L94" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="M94" s="75"/>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -4976,12 +5279,18 @@
       <c r="E95" s="1">
         <v>-20353000</v>
       </c>
-      <c r="L95" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="M95" s="46" cm="1">
-        <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>2.278</v>
+      <c r="F95" s="55"/>
+      <c r="G95" s="55"/>
+      <c r="H95" s="55"/>
+      <c r="I95" s="55"/>
+      <c r="J95" s="55"/>
+      <c r="K95" s="55"/>
+      <c r="L95" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="M95" s="58">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.9020000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5000,11 +5309,18 @@
       <c r="E96" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L96" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="M96" s="44">
-        <v>8.4000000000000005E-2</v>
+      <c r="F96" s="55"/>
+      <c r="G96" s="55"/>
+      <c r="H96" s="55"/>
+      <c r="I96" s="55"/>
+      <c r="J96" s="55"/>
+      <c r="K96" s="55"/>
+      <c r="L96" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="M96" s="59" cm="1">
+        <f t="array" ref="M96">_FV(A1,"Beta")</f>
+        <v>2.1280000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5023,15 +5339,20 @@
       <c r="E97" s="1">
         <v>-2021000</v>
       </c>
-      <c r="L97" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="M97" s="43">
-        <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.14135664000000001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="F97" s="55"/>
+      <c r="G97" s="55"/>
+      <c r="H97" s="55"/>
+      <c r="I97" s="55"/>
+      <c r="J97" s="55"/>
+      <c r="K97" s="55"/>
+      <c r="L97" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="M97" s="60">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -5047,12 +5368,21 @@
       <c r="E98" s="1">
         <v>0</v>
       </c>
-      <c r="L98" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="M98" s="68"/>
-    </row>
-    <row r="99" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F98" s="55"/>
+      <c r="G98" s="55"/>
+      <c r="H98" s="55"/>
+      <c r="I98" s="55"/>
+      <c r="J98" s="55"/>
+      <c r="K98" s="55"/>
+      <c r="L98" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="M98" s="57">
+        <f>(M95)+((M96)*(M97-M95))</f>
+        <v>0.12345744</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -5068,13 +5398,16 @@
       <c r="E99" s="1">
         <v>-4953000</v>
       </c>
-      <c r="L99" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="M99" s="41">
-        <f>M86+M87</f>
-        <v>4079000</v>
-      </c>
+      <c r="F99" s="55"/>
+      <c r="G99" s="55"/>
+      <c r="H99" s="55"/>
+      <c r="I99" s="55"/>
+      <c r="J99" s="55"/>
+      <c r="K99" s="55"/>
+      <c r="L99" s="75" t="s">
+        <v>141</v>
+      </c>
+      <c r="M99" s="75"/>
     </row>
     <row r="100" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -5092,12 +5425,18 @@
       <c r="E100" s="10">
         <v>-27327000</v>
       </c>
-      <c r="L100" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="M100" s="43">
-        <f>M99/M103</f>
-        <v>9.0484122404211806E-4</v>
+      <c r="F100" s="55"/>
+      <c r="G100" s="55"/>
+      <c r="H100" s="55"/>
+      <c r="I100" s="55"/>
+      <c r="J100" s="55"/>
+      <c r="K100" s="55"/>
+      <c r="L100" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="M100" s="56">
+        <f>M87+M88</f>
+        <v>4079000</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5116,12 +5455,18 @@
       <c r="E101" s="1">
         <v>466000</v>
       </c>
-      <c r="L101" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="M101" s="47" cm="1">
-        <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>4503894213</v>
+      <c r="F101" s="55"/>
+      <c r="G101" s="55"/>
+      <c r="H101" s="55"/>
+      <c r="I101" s="55"/>
+      <c r="J101" s="55"/>
+      <c r="K101" s="55"/>
+      <c r="L101" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="M101" s="57">
+        <f>M100/M104</f>
+        <v>7.6834982971438898E-4</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5140,12 +5485,18 @@
       <c r="E102" s="10">
         <v>131895000</v>
       </c>
-      <c r="L102" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="M102" s="43">
-        <f>M101/M103</f>
-        <v>0.99909515877595789</v>
+      <c r="F102" s="55"/>
+      <c r="G102" s="55"/>
+      <c r="H102" s="55"/>
+      <c r="I102" s="55"/>
+      <c r="J102" s="55"/>
+      <c r="K102" s="55"/>
+      <c r="L102" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="M102" s="61" cm="1">
+        <f t="array" ref="M102">_FV(A1,"Market cap",TRUE)</f>
+        <v>5304700728</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5164,15 +5515,21 @@
       <c r="E103" s="1">
         <v>336197000</v>
       </c>
-      <c r="L103" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="M103" s="48">
-        <f>M99+M101</f>
-        <v>4507973213</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F103" s="55"/>
+      <c r="G103" s="55"/>
+      <c r="H103" s="55"/>
+      <c r="I103" s="55"/>
+      <c r="J103" s="55"/>
+      <c r="K103" s="55"/>
+      <c r="L103" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="M103" s="57">
+        <f>M102/M104</f>
+        <v>0.99923165017028559</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -5188,106 +5545,120 @@
       <c r="E104" s="11">
         <v>468092000</v>
       </c>
-      <c r="L104" s="68" t="s">
-        <v>147</v>
-      </c>
-      <c r="M104" s="68"/>
-    </row>
-    <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F104" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="G104" s="77"/>
+      <c r="H104" s="77"/>
+      <c r="I104" s="77"/>
+      <c r="J104" s="77"/>
+      <c r="K104" s="53"/>
+      <c r="L104" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="M104" s="62">
+        <f>M100+M102</f>
+        <v>5308779728</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="16" t="s">
         <v>102</v>
       </c>
       <c r="B105" s="1">
-        <f t="shared" ref="B105:D105" si="25">(B22*(1-$M$91))+B77+B88+B81</f>
+        <f>(B22*(1-$M$92))+B77+B88+B81</f>
         <v>23275185.662146769</v>
       </c>
       <c r="C105" s="1">
-        <f t="shared" si="25"/>
+        <f>(C22*(1-$M$92))+C77+C88+C81</f>
         <v>74388289.758319959</v>
       </c>
       <c r="D105" s="1">
-        <f t="shared" si="25"/>
+        <f>(D22*(1-$M$92))+D77+D88+D81</f>
         <v>57639485.854193851</v>
       </c>
       <c r="E105" s="1">
-        <f>(E22*(1-$M$91))+E77+E88+E81</f>
+        <f>(E22*(1-$M$92))+E77+E88+E81</f>
         <v>132163345.70970128</v>
       </c>
-      <c r="F105" s="35">
-        <f>E105*(1+$M$106)</f>
-        <v>185689424.04120198</v>
-      </c>
-      <c r="G105" s="35">
-        <f t="shared" ref="G105:J105" si="26">F105*(1+$M$106)</f>
-        <v>260893533.04122898</v>
-      </c>
-      <c r="H105" s="35">
-        <f t="shared" si="26"/>
-        <v>366555262.55298221</v>
-      </c>
-      <c r="I105" s="35">
-        <f t="shared" si="26"/>
-        <v>515009931.21225578</v>
-      </c>
-      <c r="J105" s="35">
-        <f t="shared" si="26"/>
-        <v>723588654.54541147</v>
-      </c>
-      <c r="K105" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="L105" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="M105" s="50">
-        <f>(M100*M92)+(M102*M97)</f>
-        <v>0.1461737303986905</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="F105" s="52">
+        <f>F107/F3</f>
+        <v>0.42496050552922593</v>
+      </c>
+      <c r="G105" s="52">
+        <f>G107/G3</f>
+        <v>0.4</v>
+      </c>
+      <c r="H105" s="52">
+        <f>H107/H3</f>
+        <v>0.36920384951881013</v>
+      </c>
+      <c r="I105" s="52">
+        <f>I107/I3</f>
+        <v>0.41530880420499344</v>
+      </c>
+      <c r="J105" s="52">
+        <f>J107/J3</f>
+        <v>0.42528735632183906</v>
+      </c>
+      <c r="K105" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="L105" s="75" t="s">
+        <v>147</v>
+      </c>
+      <c r="M105" s="75"/>
+    </row>
+    <row r="106" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
         <v>103</v>
       </c>
       <c r="B106" s="17" t="e">
-        <f t="shared" ref="B106" si="27">(B107/A107)-1</f>
+        <f t="shared" ref="B106" si="25">(B107/A107)-1</f>
         <v>#VALUE!</v>
       </c>
       <c r="C106" s="17">
-        <f t="shared" ref="C106" si="28">(C107/B107)-1</f>
+        <f t="shared" ref="C106" si="26">(C107/B107)-1</f>
         <v>1.9156701244098286</v>
       </c>
       <c r="D106" s="17">
-        <f t="shared" ref="D106" si="29">(D107/C107)-1</f>
+        <f t="shared" ref="D106" si="27">(D107/C107)-1</f>
         <v>-0.28527019999054415</v>
       </c>
       <c r="E106" s="17">
-        <f t="shared" ref="E106" si="30">(E107/D107)-1</f>
+        <f t="shared" ref="E106" si="28">(E107/D107)-1</f>
         <v>1.349947907192115</v>
       </c>
-      <c r="F106" s="37">
-        <v>255100000</v>
-      </c>
-      <c r="G106" s="37">
-        <v>317700000</v>
-      </c>
-      <c r="H106" s="37">
-        <v>394000000</v>
-      </c>
-      <c r="I106" s="37">
-        <v>669300000</v>
-      </c>
-      <c r="J106" s="37">
-        <v>987700000</v>
-      </c>
-      <c r="K106" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="L106" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="M106" s="52">
-        <f>(SUM(F4:J4)/5)</f>
-        <v>0.40499941980185267</v>
+      <c r="F106" s="46">
+        <f>(F107/E105)-1</f>
+        <v>1.0353600959139038</v>
+      </c>
+      <c r="G106" s="46">
+        <f>(G107/F107)-1</f>
+        <v>0.30855018587360594</v>
+      </c>
+      <c r="H106" s="46">
+        <f>(H107/G107)-1</f>
+        <v>0.19886363636363646</v>
+      </c>
+      <c r="I106" s="46">
+        <f>(I107/H107)-1</f>
+        <v>0.49786729857819911</v>
+      </c>
+      <c r="J106" s="46">
+        <f>(J107/I107)-1</f>
+        <v>0.22923588039867115</v>
+      </c>
+      <c r="K106" s="47">
+        <f>SUM(F106:J106)/5</f>
+        <v>0.45397541942560338</v>
+      </c>
+      <c r="L106" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="M106" s="63">
+        <f>(M101*M93)+(M103*M98)</f>
+        <v>0.12756164594468788</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5306,22 +5677,30 @@
       <c r="E107" s="1">
         <v>142099000</v>
       </c>
-      <c r="F107" s="36"/>
-      <c r="G107" s="36"/>
-      <c r="H107" s="36"/>
-      <c r="I107" s="36"/>
-      <c r="J107" s="38">
-        <f>J106*(1+M107)/(M108-M107)</f>
-        <v>8354884319.1423321</v>
-      </c>
-      <c r="K107" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="L107" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="M107" s="54">
-        <v>2.5000000000000001E-2</v>
+      <c r="F107" s="48">
+        <v>269000000</v>
+      </c>
+      <c r="G107" s="48">
+        <v>352000000</v>
+      </c>
+      <c r="H107" s="48">
+        <v>422000000</v>
+      </c>
+      <c r="I107" s="48">
+        <v>632100000</v>
+      </c>
+      <c r="J107" s="48">
+        <v>777000000</v>
+      </c>
+      <c r="K107" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="L107" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="M107" s="38">
+        <f>(SUM(F4:J4)/5)</f>
+        <v>0.34641142036907441</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5330,136 +5709,216 @@
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
       <c r="E108" s="13"/>
-      <c r="F108" s="38">
-        <f t="shared" ref="F108:I108" si="31">F107+F106</f>
-        <v>255100000</v>
-      </c>
-      <c r="G108" s="38">
-        <f t="shared" si="31"/>
-        <v>317700000</v>
-      </c>
-      <c r="H108" s="38">
-        <f t="shared" si="31"/>
-        <v>394000000</v>
-      </c>
-      <c r="I108" s="38">
-        <f t="shared" si="31"/>
-        <v>669300000</v>
-      </c>
-      <c r="J108" s="38">
-        <f>J107+J106</f>
-        <v>9342584319.1423321</v>
-      </c>
-      <c r="K108" s="39" t="s">
+      <c r="F108" s="54"/>
+      <c r="G108" s="54"/>
+      <c r="H108" s="54"/>
+      <c r="I108" s="54"/>
+      <c r="J108" s="49">
+        <f>J107*(1+M108)/(M109-M108)</f>
+        <v>7765329745.4831867</v>
+      </c>
+      <c r="K108" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="L108" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="M108" s="39">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="F109" s="49">
+        <f t="shared" ref="F109:I109" si="29">F108+F107</f>
+        <v>269000000</v>
+      </c>
+      <c r="G109" s="49">
+        <f t="shared" si="29"/>
+        <v>352000000</v>
+      </c>
+      <c r="H109" s="49">
+        <f t="shared" si="29"/>
+        <v>422000000</v>
+      </c>
+      <c r="I109" s="49">
+        <f t="shared" si="29"/>
+        <v>632100000</v>
+      </c>
+      <c r="J109" s="49">
+        <f>J108+J107</f>
+        <v>8542329745.4831867</v>
+      </c>
+      <c r="K109" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="L108" s="55" t="s">
+      <c r="L109" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="M109" s="38">
+        <f>M106</f>
+        <v>0.12756164594468788</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="F110" s="76" t="s">
         <v>154</v>
       </c>
-      <c r="M108" s="52">
-        <f>M105</f>
-        <v>0.1461737303986905</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F109" s="65" t="s">
+      <c r="G110" s="76"/>
+      <c r="H110" s="55"/>
+      <c r="I110" s="55"/>
+      <c r="J110" s="55"/>
+      <c r="K110" s="55"/>
+      <c r="L110" s="55"/>
+      <c r="M110" s="55"/>
+    </row>
+    <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F111" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="G109" s="65"/>
-    </row>
-    <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F110" s="56" t="s">
+      <c r="G111" s="61">
+        <f>NPV(M109,F109,G109,H109,I109,J109)</f>
+        <v>5887623936.4059458</v>
+      </c>
+      <c r="H111" s="55"/>
+      <c r="I111" s="55"/>
+      <c r="J111" s="55"/>
+      <c r="K111" s="55"/>
+      <c r="L111" s="55"/>
+      <c r="M111" s="55"/>
+    </row>
+    <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F112" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="G110" s="47">
-        <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>5836840089.4433689</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F111" s="56" t="s">
-        <v>157</v>
-      </c>
-      <c r="G111" s="47">
+      <c r="G112" s="61">
         <f>E40</f>
         <v>469387000</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F112" s="56" t="s">
+      <c r="H112" s="55"/>
+      <c r="I112" s="55"/>
+      <c r="J112" s="55"/>
+      <c r="K112" s="55"/>
+      <c r="L112" s="55"/>
+      <c r="M112" s="55"/>
+    </row>
+    <row r="113" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F113" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="G112" s="47">
-        <f>M99</f>
+      <c r="G113" s="61">
+        <f>M100</f>
         <v>4079000</v>
       </c>
-    </row>
-    <row r="113" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F113" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="G113" s="47">
-        <f>G110+G111-G112</f>
-        <v>6302148089.4433689</v>
-      </c>
-    </row>
-    <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F114" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="G114" s="56">
+      <c r="H113" s="55"/>
+      <c r="I113" s="55"/>
+      <c r="J113" s="55"/>
+      <c r="K113" s="55"/>
+      <c r="L113" s="55"/>
+      <c r="M113" s="55"/>
+    </row>
+    <row r="114" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F114" s="67" t="s">
+        <v>157</v>
+      </c>
+      <c r="G114" s="61">
+        <f>G111+G112-G113</f>
+        <v>6352931936.4059458</v>
+      </c>
+      <c r="H114" s="55"/>
+      <c r="I114" s="55"/>
+      <c r="J114" s="55"/>
+      <c r="K114" s="55"/>
+      <c r="L114" s="55"/>
+      <c r="M114" s="55"/>
+    </row>
+    <row r="115" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F115" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="G115" s="67">
         <f>E34*(1+(K16*5))</f>
         <v>348782722.99763072</v>
       </c>
-    </row>
-    <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F115" s="57" t="s">
+      <c r="H115" s="55"/>
+      <c r="I115" s="55"/>
+      <c r="J115" s="55"/>
+      <c r="K115" s="55"/>
+      <c r="L115" s="55"/>
+      <c r="M115" s="55"/>
+    </row>
+    <row r="116" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F116" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="G116" s="69">
+        <f>G114/G115</f>
+        <v>18.214583227647722</v>
+      </c>
+      <c r="H116" s="55"/>
+      <c r="I116" s="55"/>
+      <c r="J116" s="55"/>
+      <c r="K116" s="55"/>
+      <c r="L116" s="55"/>
+      <c r="M116" s="55"/>
+    </row>
+    <row r="117" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F117" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="G115" s="58">
-        <f>G113/G114</f>
-        <v>18.068980124013137</v>
-      </c>
-    </row>
-    <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F116" s="56" t="s">
+      <c r="G117" s="70" cm="1">
+        <f t="array" ref="G117">_FV(A1,"Price")</f>
+        <v>18.32</v>
+      </c>
+      <c r="H117" s="55"/>
+      <c r="I117" s="55"/>
+      <c r="J117" s="55"/>
+      <c r="K117" s="55"/>
+      <c r="L117" s="55"/>
+      <c r="M117" s="55"/>
+    </row>
+    <row r="118" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F118" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="G116" s="59" cm="1">
-        <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>15.33</v>
-      </c>
-    </row>
-    <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F117" s="57" t="s">
+      <c r="G118" s="71">
+        <f>G116/G117-1</f>
+        <v>-5.7541906305829116E-3</v>
+      </c>
+      <c r="H118" s="55"/>
+      <c r="I118" s="55"/>
+      <c r="J118" s="55"/>
+      <c r="K118" s="55"/>
+      <c r="L118" s="55"/>
+      <c r="M118" s="55"/>
+    </row>
+    <row r="119" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F119" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="G117" s="60">
-        <f>G115/G116-1</f>
-        <v>0.1786679793876802</v>
-      </c>
-    </row>
-    <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F118" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="G118" s="61" t="str">
-        <f>IF(G115&gt;G116,"BUY","SELL")</f>
-        <v>BUY</v>
-      </c>
+      <c r="G119" s="72" t="str">
+        <f>IF(G116&gt;G117,"BUY","SELL")</f>
+        <v>SELL</v>
+      </c>
+      <c r="H119" s="55"/>
+      <c r="I119" s="55"/>
+      <c r="J119" s="55"/>
+      <c r="K119" s="55"/>
+      <c r="L119" s="55"/>
+      <c r="M119" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="L83:M83"/>
+  <mergeCells count="7">
     <mergeCell ref="L84:M84"/>
-    <mergeCell ref="L93:M93"/>
-    <mergeCell ref="L98:M98"/>
-    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="F104:J104"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F1" r:id="rId1" display="https://finbox.com/NASDAQGS:DLO/explorer/revenue_proj" xr:uid="{ABA24D10-0CEB-8B4F-8BE7-F2BA3D5A8154}"/>
-    <hyperlink ref="K106" r:id="rId2" xr:uid="{39C22233-C3A6-454C-AB04-481E7AF7BDCE}"/>
+    <hyperlink ref="K107" r:id="rId2" xr:uid="{39C22233-C3A6-454C-AB04-481E7AF7BDCE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>

--- a/Technology/Software/dLocal.xlsx
+++ b/Technology/Software/dLocal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17026646-37AE-1C4C-80F6-EEF652C50107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4952E058-6F31-4046-8E07-D97D5C0F52BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2342,7 +2342,7 @@
       <sheetData sheetId="6">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.9880000000000008E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2484,10 +2484,10 @@
     <v>24.65</v>
     <v>9.0330999999999992</v>
     <v>2.1280000000000001</v>
-    <v>7.0000000000000007E-2</v>
-    <v>3.836E-3</v>
-    <v>0.03</v>
-    <v>1.6379999999999999E-3</v>
+    <v>-0.3</v>
+    <v>-1.6375999999999998E-2</v>
+    <v>-0.12</v>
+    <v>-6.6590000000000009E-3</v>
     <v>USD</v>
     <v>Dlocal Ltd, an Uruguay-based company, is focused on enabling global merchants to connect with emerging market users. The Company offers payment platform for emerging markets. Through the Company's direct application programming interface (API), one technology platform, and one contract, which is collectively referred as the One dLocal model. The Company enables global enterprise merchants to get paid (pay-in) and to make payments (pay-out) online in a safe and efficient manner. The Company's cloud-based platform powers both cross-border and local-to-local transactions in approximately 29 countries. The Company enables global merchants to connect with over 600 local payment methods across different geographies, which expands their addressable markets. It operates in different verticals and geographies. The Company's key verticals include retail, streaming, ride hailing, financial institutions, advertising, software as a service (SaaS), travel, e-learning and gaming.</v>
     <v>806</v>
@@ -2495,25 +2495,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>Dr Luis Bonavita, 1294, MONTEVIDEO, URUGUAY-NA, 11300 UY</v>
-    <v>18.57</v>
+    <v>18.46</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45218.892663390623</v>
+    <v>45219.999676851563</v>
     <v>0</v>
-    <v>18.033999999999999</v>
-    <v>5304700728</v>
+    <v>17.670000000000002</v>
+    <v>5217833358</v>
     <v>dLocal Ltd</v>
     <v>dLocal Ltd</v>
-    <v>18.170000000000002</v>
-    <v>43.377000000000002</v>
-    <v>18.25</v>
+    <v>18.16</v>
+    <v>43.543399999999998</v>
     <v>18.32</v>
-    <v>18.350000000000001</v>
+    <v>18.02</v>
+    <v>17.899999999999999</v>
     <v>289557900</v>
     <v>DLO</v>
     <v>dLocal Ltd (XNAS:DLO)</v>
-    <v>1181230</v>
-    <v>969269</v>
+    <v>947402</v>
+    <v>923368</v>
     <v>2021</v>
   </rv>
   <rv s="2">
@@ -3102,7 +3102,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A89" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F100" sqref="F100"/>
+      <selection pane="topRight" activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3586,15 +3586,15 @@
       </c>
       <c r="L16" s="26">
         <f>M102/E3</f>
-        <v>12.662650183207019</v>
+        <v>12.455292374530048</v>
       </c>
       <c r="M16" s="26">
         <f>M102/E28</f>
-        <v>48.808928056825813</v>
+        <v>48.009655217467312</v>
       </c>
       <c r="N16" s="27">
         <f>M102/E107</f>
-        <v>37.331020823510372</v>
+        <v>36.719704980330611</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3680,15 +3680,15 @@
       </c>
       <c r="L19" s="26">
         <f>M102/F3</f>
-        <v>8.3802539146919433</v>
+        <v>8.2430226824644546</v>
       </c>
       <c r="M19" s="26">
         <f>M102/F28</f>
-        <v>29.801689483146067</v>
+        <v>29.313670550561799</v>
       </c>
       <c r="N19" s="27">
         <f>M102/F105</f>
-        <v>12482808776.297398</v>
+        <v>12278395968.825277</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3804,7 +3804,7 @@
       </c>
       <c r="N22" s="41">
         <f>F107/M102</f>
-        <v>5.0709741000114716E-2</v>
+        <v>5.1553965323091103E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5290,7 +5290,7 @@
       </c>
       <c r="M95" s="58">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.9880000000000008E-2</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5379,7 +5379,7 @@
       </c>
       <c r="M98" s="57">
         <f>(M95)+((M96)*(M97-M95))</f>
-        <v>0.12345744</v>
+        <v>0.12248736</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5466,7 +5466,7 @@
       </c>
       <c r="M101" s="57">
         <f>M100/M104</f>
-        <v>7.6834982971438898E-4</v>
+        <v>7.8113145536633688E-4</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="M102" s="61" cm="1">
         <f t="array" ref="M102">_FV(A1,"Market cap",TRUE)</f>
-        <v>5304700728</v>
+        <v>5217833358</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5526,7 +5526,7 @@
       </c>
       <c r="M103" s="57">
         <f>M102/M104</f>
-        <v>0.99923165017028559</v>
+        <v>0.99921886854463371</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5558,7 +5558,7 @@
       </c>
       <c r="M104" s="62">
         <f>M100+M102</f>
-        <v>5308779728</v>
+        <v>5221912358</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -5658,7 +5658,7 @@
       </c>
       <c r="M106" s="63">
         <f>(M101*M93)+(M103*M98)</f>
-        <v>0.12756164594468788</v>
+        <v>0.12666059784487313</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5715,7 +5715,7 @@
       <c r="I108" s="54"/>
       <c r="J108" s="49">
         <f>J107*(1+M108)/(M109-M108)</f>
-        <v>7765329745.4831867</v>
+        <v>7834156171.452857</v>
       </c>
       <c r="K108" s="50" t="s">
         <v>151</v>
@@ -5746,7 +5746,7 @@
       </c>
       <c r="J109" s="49">
         <f>J108+J107</f>
-        <v>8542329745.4831867</v>
+        <v>8611156171.452858</v>
       </c>
       <c r="K109" s="50" t="s">
         <v>146</v>
@@ -5756,7 +5756,7 @@
       </c>
       <c r="M109" s="38">
         <f>M106</f>
-        <v>0.12756164594468788</v>
+        <v>0.12666059784487313</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="19" x14ac:dyDescent="0.2">
@@ -5777,7 +5777,7 @@
       </c>
       <c r="G111" s="61">
         <f>NPV(M109,F109,G109,H109,I109,J109)</f>
-        <v>5887623936.4059458</v>
+        <v>5946901464.2128353</v>
       </c>
       <c r="H111" s="55"/>
       <c r="I111" s="55"/>
@@ -5822,7 +5822,7 @@
       </c>
       <c r="G114" s="61">
         <f>G111+G112-G113</f>
-        <v>6352931936.4059458</v>
+        <v>6412209464.2128353</v>
       </c>
       <c r="H114" s="55"/>
       <c r="I114" s="55"/>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="G116" s="69">
         <f>G114/G115</f>
-        <v>18.214583227647722</v>
+        <v>18.384538686729599</v>
       </c>
       <c r="H116" s="55"/>
       <c r="I116" s="55"/>
@@ -5867,7 +5867,7 @@
       </c>
       <c r="G117" s="70" cm="1">
         <f t="array" ref="G117">_FV(A1,"Price")</f>
-        <v>18.32</v>
+        <v>18.02</v>
       </c>
       <c r="H117" s="55"/>
       <c r="I117" s="55"/>
@@ -5882,7 +5882,7 @@
       </c>
       <c r="G118" s="71">
         <f>G116/G117-1</f>
-        <v>-5.7541906305829116E-3</v>
+        <v>2.0229671849589348E-2</v>
       </c>
       <c r="H118" s="55"/>
       <c r="I118" s="55"/>
@@ -5897,7 +5897,7 @@
       </c>
       <c r="G119" s="72" t="str">
         <f>IF(G116&gt;G117,"BUY","SELL")</f>
-        <v>SELL</v>
+        <v>BUY</v>
       </c>
       <c r="H119" s="55"/>
       <c r="I119" s="55"/>

--- a/Technology/Software/dLocal.xlsx
+++ b/Technology/Software/dLocal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4952E058-6F31-4046-8E07-D97D5C0F52BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBB8515-A136-EE40-B1FF-A6A075EAACC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -890,7 +890,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1065,6 +1065,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2317,13 +2320,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Value"/>
+      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
@@ -2339,14 +2344,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9880000000000008E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -2356,6 +2361,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2483,11 +2490,11 @@
     <v>Powered by Refinitiv</v>
     <v>24.65</v>
     <v>9.0330999999999992</v>
-    <v>2.1280000000000001</v>
-    <v>-0.3</v>
-    <v>-1.6375999999999998E-2</v>
-    <v>-0.12</v>
-    <v>-6.6590000000000009E-3</v>
+    <v>2.1160000000000001</v>
+    <v>-0.39</v>
+    <v>-2.2387999999999998E-2</v>
+    <v>-0.14000000000000001</v>
+    <v>-8.2210000000000009E-3</v>
     <v>USD</v>
     <v>Dlocal Ltd, an Uruguay-based company, is focused on enabling global merchants to connect with emerging market users. The Company offers payment platform for emerging markets. Through the Company's direct application programming interface (API), one technology platform, and one contract, which is collectively referred as the One dLocal model. The Company enables global enterprise merchants to get paid (pay-in) and to make payments (pay-out) online in a safe and efficient manner. The Company's cloud-based platform powers both cross-border and local-to-local transactions in approximately 29 countries. The Company enables global merchants to connect with over 600 local payment methods across different geographies, which expands their addressable markets. It operates in different verticals and geographies. The Company's key verticals include retail, streaming, ride hailing, financial institutions, advertising, software as a service (SaaS), travel, e-learning and gaming.</v>
     <v>806</v>
@@ -2495,25 +2502,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>Dr Luis Bonavita, 1294, MONTEVIDEO, URUGUAY-NA, 11300 UY</v>
-    <v>18.46</v>
+    <v>17.574999999999999</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45219.999676851563</v>
+    <v>45226.88912160859</v>
     <v>0</v>
-    <v>17.670000000000002</v>
-    <v>5217833358</v>
+    <v>16.96</v>
+    <v>4931171000</v>
     <v>dLocal Ltd</v>
     <v>dLocal Ltd</v>
-    <v>18.16</v>
-    <v>43.543399999999998</v>
-    <v>18.32</v>
-    <v>18.02</v>
-    <v>17.899999999999999</v>
+    <v>17.45</v>
+    <v>40.4773</v>
+    <v>17.420000000000002</v>
+    <v>17.03</v>
+    <v>16.89</v>
     <v>289557900</v>
     <v>DLO</v>
     <v>dLocal Ltd (XNAS:DLO)</v>
-    <v>947402</v>
-    <v>923368</v>
+    <v>805547</v>
+    <v>897852</v>
     <v>2021</v>
   </rv>
   <rv s="2">
@@ -2678,9 +2685,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3100,9 +3107,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G98" sqref="G98"/>
+      <selection pane="topRight" activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3581,20 +3588,20 @@
         <v>285481000</v>
       </c>
       <c r="K16" s="25">
-        <f>(E35+D35+C35)/3</f>
-        <v>2.2765431963205324E-2</v>
+        <f>AVERAGE(C35:F35)</f>
+        <v>-1.7523098379805327E-3</v>
       </c>
       <c r="L16" s="26">
         <f>M102/E3</f>
-        <v>12.455292374530048</v>
+        <v>11.771011517574745</v>
       </c>
       <c r="M16" s="26">
         <f>M102/E28</f>
-        <v>48.009655217467312</v>
+        <v>45.372054507144632</v>
       </c>
       <c r="N16" s="27">
         <f>M102/E107</f>
-        <v>36.719704980330611</v>
+        <v>34.702362437455577</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3680,15 +3687,15 @@
       </c>
       <c r="L19" s="26">
         <f>M102/F3</f>
-        <v>8.2430226824644546</v>
+        <v>7.7901595576619274</v>
       </c>
       <c r="M19" s="26">
         <f>M102/F28</f>
-        <v>29.313670550561799</v>
+        <v>27.70320786516854</v>
       </c>
       <c r="N19" s="27">
-        <f>M102/F105</f>
-        <v>12278395968.825277</v>
+        <f>M102/F107</f>
+        <v>18.331490706319702</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3804,7 +3811,7 @@
       </c>
       <c r="N22" s="41">
         <f>F107/M102</f>
-        <v>5.1553965323091103E-2</v>
+        <v>5.455093729258223E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -4960,10 +4967,10 @@
       <c r="I84" s="55"/>
       <c r="J84" s="55"/>
       <c r="K84" s="55"/>
-      <c r="L84" s="73" t="s">
+      <c r="L84" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="M84" s="74"/>
+      <c r="M84" s="75"/>
     </row>
     <row r="85" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4987,10 +4994,10 @@
       <c r="I85" s="55"/>
       <c r="J85" s="55"/>
       <c r="K85" s="55"/>
-      <c r="L85" s="75" t="s">
+      <c r="L85" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="M85" s="75"/>
+      <c r="M85" s="76"/>
     </row>
     <row r="86" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -5258,10 +5265,10 @@
       <c r="I94" s="55"/>
       <c r="J94" s="55"/>
       <c r="K94" s="55"/>
-      <c r="L94" s="75" t="s">
+      <c r="L94" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="M94" s="75"/>
+      <c r="M94" s="76"/>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -5290,7 +5297,7 @@
       </c>
       <c r="M95" s="58">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9880000000000008E-2</v>
+        <v>4.845E-2</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5320,7 +5327,7 @@
       </c>
       <c r="M96" s="59" cm="1">
         <f t="array" ref="M96">_FV(A1,"Beta")</f>
-        <v>2.1280000000000001</v>
+        <v>2.1160000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5379,7 +5386,7 @@
       </c>
       <c r="M98" s="57">
         <f>(M95)+((M96)*(M97-M95))</f>
-        <v>0.12248736</v>
+        <v>0.12367380000000003</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5404,10 +5411,10 @@
       <c r="I99" s="55"/>
       <c r="J99" s="55"/>
       <c r="K99" s="55"/>
-      <c r="L99" s="75" t="s">
+      <c r="L99" s="76" t="s">
         <v>141</v>
       </c>
-      <c r="M99" s="75"/>
+      <c r="M99" s="76"/>
     </row>
     <row r="100" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -5466,7 +5473,7 @@
       </c>
       <c r="M101" s="57">
         <f>M100/M104</f>
-        <v>7.8113145536633688E-4</v>
+        <v>8.2650321665569124E-4</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5496,7 +5503,7 @@
       </c>
       <c r="M102" s="61" cm="1">
         <f t="array" ref="M102">_FV(A1,"Market cap",TRUE)</f>
-        <v>5217833358</v>
+        <v>4931171000</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5526,7 +5533,7 @@
       </c>
       <c r="M103" s="57">
         <f>M102/M104</f>
-        <v>0.99921886854463371</v>
+        <v>0.99917349678334433</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5545,20 +5552,20 @@
       <c r="E104" s="11">
         <v>468092000</v>
       </c>
-      <c r="F104" s="77" t="s">
+      <c r="F104" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="G104" s="77"/>
-      <c r="H104" s="77"/>
-      <c r="I104" s="77"/>
-      <c r="J104" s="77"/>
+      <c r="G104" s="78"/>
+      <c r="H104" s="78"/>
+      <c r="I104" s="78"/>
+      <c r="J104" s="78"/>
       <c r="K104" s="53"/>
       <c r="L104" s="35" t="s">
         <v>146</v>
       </c>
       <c r="M104" s="62">
         <f>M100+M102</f>
-        <v>5221912358</v>
+        <v>4935250000</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -5601,13 +5608,13 @@
         <f>J107/J3</f>
         <v>0.42528735632183906</v>
       </c>
-      <c r="K105" s="45" t="s">
+      <c r="K105" s="73" t="s">
         <v>165</v>
       </c>
-      <c r="L105" s="75" t="s">
+      <c r="L105" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="M105" s="75"/>
+      <c r="M105" s="76"/>
     </row>
     <row r="106" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
@@ -5658,7 +5665,7 @@
       </c>
       <c r="M106" s="63">
         <f>(M101*M93)+(M103*M98)</f>
-        <v>0.12666059784487313</v>
+        <v>0.1280884583833152</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5715,7 +5722,7 @@
       <c r="I108" s="54"/>
       <c r="J108" s="49">
         <f>J107*(1+M108)/(M109-M108)</f>
-        <v>7834156171.452857</v>
+        <v>7725646619.3202934</v>
       </c>
       <c r="K108" s="50" t="s">
         <v>151</v>
@@ -5746,7 +5753,7 @@
       </c>
       <c r="J109" s="49">
         <f>J108+J107</f>
-        <v>8611156171.452858</v>
+        <v>8502646619.3202934</v>
       </c>
       <c r="K109" s="50" t="s">
         <v>146</v>
@@ -5756,14 +5763,14 @@
       </c>
       <c r="M109" s="38">
         <f>M106</f>
-        <v>0.12666059784487313</v>
+        <v>0.1280884583833152</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="F110" s="76" t="s">
+      <c r="F110" s="77" t="s">
         <v>154</v>
       </c>
-      <c r="G110" s="76"/>
+      <c r="G110" s="77"/>
       <c r="H110" s="55"/>
       <c r="I110" s="55"/>
       <c r="J110" s="55"/>
@@ -5777,7 +5784,7 @@
       </c>
       <c r="G111" s="61">
         <f>NPV(M109,F109,G109,H109,I109,J109)</f>
-        <v>5946901464.2128353</v>
+        <v>5853457001.0621881</v>
       </c>
       <c r="H111" s="55"/>
       <c r="I111" s="55"/>
@@ -5822,7 +5829,7 @@
       </c>
       <c r="G114" s="61">
         <f>G111+G112-G113</f>
-        <v>6412209464.2128353</v>
+        <v>6318765001.0621881</v>
       </c>
       <c r="H114" s="55"/>
       <c r="I114" s="55"/>
@@ -5837,7 +5844,7 @@
       </c>
       <c r="G115" s="67">
         <f>E34*(1+(K16*5))</f>
-        <v>348782722.99763072</v>
+        <v>310395417.24822307</v>
       </c>
       <c r="H115" s="55"/>
       <c r="I115" s="55"/>
@@ -5852,7 +5859,7 @@
       </c>
       <c r="G116" s="69">
         <f>G114/G115</f>
-        <v>18.384538686729599</v>
+        <v>20.357146561893583</v>
       </c>
       <c r="H116" s="55"/>
       <c r="I116" s="55"/>
@@ -5867,7 +5874,7 @@
       </c>
       <c r="G117" s="70" cm="1">
         <f t="array" ref="G117">_FV(A1,"Price")</f>
-        <v>18.02</v>
+        <v>17.03</v>
       </c>
       <c r="H117" s="55"/>
       <c r="I117" s="55"/>
@@ -5882,7 +5889,7 @@
       </c>
       <c r="G118" s="71">
         <f>G116/G117-1</f>
-        <v>2.0229671849589348E-2</v>
+        <v>0.1953697335228175</v>
       </c>
       <c r="H118" s="55"/>
       <c r="I118" s="55"/>

--- a/Technology/Software/dLocal.xlsx
+++ b/Technology/Software/dLocal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBB8515-A136-EE40-B1FF-A6A075EAACC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1547F4-4017-5241-81BD-33C286787C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2325,13 +2325,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2348,7 +2345,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.845E-2</v>
+            <v>4.8750000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2360,9 +2357,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2491,10 +2485,8 @@
     <v>24.65</v>
     <v>9.0330999999999992</v>
     <v>2.1160000000000001</v>
-    <v>-0.39</v>
-    <v>-2.2387999999999998E-2</v>
-    <v>-0.14000000000000001</v>
-    <v>-8.2210000000000009E-3</v>
+    <v>1.23</v>
+    <v>7.2267999999999999E-2</v>
     <v>USD</v>
     <v>Dlocal Ltd, an Uruguay-based company, is focused on enabling global merchants to connect with emerging market users. The Company offers payment platform for emerging markets. Through the Company's direct application programming interface (API), one technology platform, and one contract, which is collectively referred as the One dLocal model. The Company enables global enterprise merchants to get paid (pay-in) and to make payments (pay-out) online in a safe and efficient manner. The Company's cloud-based platform powers both cross-border and local-to-local transactions in approximately 29 countries. The Company enables global merchants to connect with over 600 local payment methods across different geographies, which expands their addressable markets. It operates in different verticals and geographies. The Company's key verticals include retail, streaming, ride hailing, financial institutions, advertising, software as a service (SaaS), travel, e-learning and gaming.</v>
     <v>806</v>
@@ -2502,25 +2494,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>Dr Luis Bonavita, 1294, MONTEVIDEO, URUGUAY-NA, 11300 UY</v>
-    <v>17.574999999999999</v>
+    <v>18.3</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45226.88912160859</v>
+    <v>45232.90530548594</v>
     <v>0</v>
-    <v>16.96</v>
-    <v>4931171000</v>
+    <v>17.350000000000001</v>
+    <v>5284431675</v>
     <v>dLocal Ltd</v>
     <v>dLocal Ltd</v>
-    <v>17.45</v>
-    <v>40.4773</v>
-    <v>17.420000000000002</v>
-    <v>17.03</v>
-    <v>16.89</v>
+    <v>17.350000000000001</v>
+    <v>43.377000000000002</v>
+    <v>17.02</v>
+    <v>18.25</v>
     <v>289557900</v>
     <v>DLO</v>
     <v>dLocal Ltd (XNAS:DLO)</v>
-    <v>805547</v>
-    <v>897852</v>
+    <v>972537</v>
+    <v>888276</v>
     <v>2021</v>
   </rv>
   <rv s="2">
@@ -2552,8 +2543,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2574,7 +2563,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2591,7 +2579,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2602,16 +2590,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2677,19 +2662,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2734,9 +2713,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2744,9 +2720,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3107,9 +3080,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E117" sqref="E117"/>
+      <selection pane="topRight" activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3593,15 +3566,15 @@
       </c>
       <c r="L16" s="26">
         <f>M102/E3</f>
-        <v>11.771011517574745</v>
+        <v>12.614266694515726</v>
       </c>
       <c r="M16" s="26">
         <f>M102/E28</f>
-        <v>45.372054507144632</v>
+        <v>48.622431060975501</v>
       </c>
       <c r="N16" s="27">
         <f>M102/E107</f>
-        <v>34.702362437455577</v>
+        <v>37.188380460101762</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3687,15 +3660,15 @@
       </c>
       <c r="L19" s="26">
         <f>M102/F3</f>
-        <v>7.7901595576619274</v>
+        <v>8.348233293838863</v>
       </c>
       <c r="M19" s="26">
         <f>M102/F28</f>
-        <v>27.70320786516854</v>
+        <v>29.687818398876406</v>
       </c>
       <c r="N19" s="27">
         <f>M102/F107</f>
-        <v>18.331490706319702</v>
+        <v>19.644727416356876</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3811,7 +3784,7 @@
       </c>
       <c r="N22" s="41">
         <f>F107/M102</f>
-        <v>5.455093729258223E-2</v>
+        <v>5.0904244116279543E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5297,7 +5270,7 @@
       </c>
       <c r="M95" s="58">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.845E-2</v>
+        <v>4.8750000000000002E-2</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5386,7 +5359,7 @@
       </c>
       <c r="M98" s="57">
         <f>(M95)+((M96)*(M97-M95))</f>
-        <v>0.12367380000000003</v>
+        <v>0.12333900000000002</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5473,7 +5446,7 @@
       </c>
       <c r="M101" s="57">
         <f>M100/M104</f>
-        <v>8.2650321665569124E-4</v>
+        <v>7.7129465187285458E-4</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5503,7 +5476,7 @@
       </c>
       <c r="M102" s="61" cm="1">
         <f t="array" ref="M102">_FV(A1,"Market cap",TRUE)</f>
-        <v>4931171000</v>
+        <v>5284431675</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5533,7 +5506,7 @@
       </c>
       <c r="M103" s="57">
         <f>M102/M104</f>
-        <v>0.99917349678334433</v>
+        <v>0.99922870534812713</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5565,7 +5538,7 @@
       </c>
       <c r="M104" s="62">
         <f>M100+M102</f>
-        <v>4935250000</v>
+        <v>5288510675</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -5665,7 +5638,7 @@
       </c>
       <c r="M106" s="63">
         <f>(M101*M93)+(M103*M98)</f>
-        <v>0.1280884583833152</v>
+        <v>0.12745902731477068</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5722,7 +5695,7 @@
       <c r="I108" s="54"/>
       <c r="J108" s="49">
         <f>J107*(1+M108)/(M109-M108)</f>
-        <v>7725646619.3202934</v>
+        <v>7773107171.4477005</v>
       </c>
       <c r="K108" s="50" t="s">
         <v>151</v>
@@ -5753,7 +5726,7 @@
       </c>
       <c r="J109" s="49">
         <f>J108+J107</f>
-        <v>8502646619.3202934</v>
+        <v>8550107171.4477005</v>
       </c>
       <c r="K109" s="50" t="s">
         <v>146</v>
@@ -5763,7 +5736,7 @@
       </c>
       <c r="M109" s="38">
         <f>M106</f>
-        <v>0.1280884583833152</v>
+        <v>0.12745902731477068</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="19" x14ac:dyDescent="0.2">
@@ -5784,7 +5757,7 @@
       </c>
       <c r="G111" s="61">
         <f>NPV(M109,F109,G109,H109,I109,J109)</f>
-        <v>5853457001.0621881</v>
+        <v>5894321168.516674</v>
       </c>
       <c r="H111" s="55"/>
       <c r="I111" s="55"/>
@@ -5829,7 +5802,7 @@
       </c>
       <c r="G114" s="61">
         <f>G111+G112-G113</f>
-        <v>6318765001.0621881</v>
+        <v>6359629168.516674</v>
       </c>
       <c r="H114" s="55"/>
       <c r="I114" s="55"/>
@@ -5859,7 +5832,7 @@
       </c>
       <c r="G116" s="69">
         <f>G114/G115</f>
-        <v>20.357146561893583</v>
+        <v>20.488798529621594</v>
       </c>
       <c r="H116" s="55"/>
       <c r="I116" s="55"/>
@@ -5874,7 +5847,7 @@
       </c>
       <c r="G117" s="70" cm="1">
         <f t="array" ref="G117">_FV(A1,"Price")</f>
-        <v>17.03</v>
+        <v>18.25</v>
       </c>
       <c r="H117" s="55"/>
       <c r="I117" s="55"/>
@@ -5889,7 +5862,7 @@
       </c>
       <c r="G118" s="71">
         <f>G116/G117-1</f>
-        <v>0.1953697335228175</v>
+        <v>0.12267389203405998</v>
       </c>
       <c r="H118" s="55"/>
       <c r="I118" s="55"/>

--- a/Technology/Software/dLocal.xlsx
+++ b/Technology/Software/dLocal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1547F4-4017-5241-81BD-33C286787C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBB0D96-436C-1648-83EE-D108CCF087A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2345,7 +2345,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8750000000000002E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2484,9 +2484,11 @@
     <v>Powered by Refinitiv</v>
     <v>24.65</v>
     <v>9.0330999999999992</v>
-    <v>2.1160000000000001</v>
-    <v>1.23</v>
-    <v>7.2267999999999999E-2</v>
+    <v>2.1019999999999999</v>
+    <v>-0.6</v>
+    <v>-3.2751000000000002E-2</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Dlocal Ltd, an Uruguay-based company, is focused on enabling global merchants to connect with emerging market users. The Company offers payment platform for emerging markets. Through the Company's direct application programming interface (API), one technology platform, and one contract, which is collectively referred as the One dLocal model. The Company enables global enterprise merchants to get paid (pay-in) and to make payments (pay-out) online in a safe and efficient manner. The Company's cloud-based platform powers both cross-border and local-to-local transactions in approximately 29 countries. The Company enables global merchants to connect with over 600 local payment methods across different geographies, which expands their addressable markets. It operates in different verticals and geographies. The Company's key verticals include retail, streaming, ride hailing, financial institutions, advertising, software as a service (SaaS), travel, e-learning and gaming.</v>
     <v>806</v>
@@ -2494,24 +2496,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>Dr Luis Bonavita, 1294, MONTEVIDEO, URUGUAY-NA, 11300 UY</v>
-    <v>18.3</v>
+    <v>18.59</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45232.90530548594</v>
+    <v>45239.875120589844</v>
     <v>0</v>
-    <v>17.350000000000001</v>
-    <v>5284431675</v>
+    <v>17.614999999999998</v>
+    <v>5130965988</v>
     <v>dLocal Ltd</v>
     <v>dLocal Ltd</v>
-    <v>17.350000000000001</v>
-    <v>43.377000000000002</v>
-    <v>17.02</v>
-    <v>18.25</v>
+    <v>18.43</v>
+    <v>43.543399999999998</v>
+    <v>18.32</v>
+    <v>17.72</v>
+    <v>17.72</v>
     <v>289557900</v>
     <v>DLO</v>
     <v>dLocal Ltd (XNAS:DLO)</v>
-    <v>972537</v>
-    <v>888276</v>
+    <v>405202</v>
+    <v>865363</v>
     <v>2021</v>
   </rv>
   <rv s="2">
@@ -2543,6 +2546,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2563,6 +2568,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2579,7 +2585,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2590,13 +2596,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2662,13 +2671,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2713,6 +2728,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2720,6 +2738,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3080,9 +3101,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G101" sqref="G101"/>
+      <selection pane="topRight" activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3566,15 +3587,15 @@
       </c>
       <c r="L16" s="26">
         <f>M102/E3</f>
-        <v>12.614266694515726</v>
+        <v>12.247934565853077</v>
       </c>
       <c r="M16" s="26">
         <f>M102/E28</f>
-        <v>48.622431060975501</v>
+        <v>47.210382378108811</v>
       </c>
       <c r="N16" s="27">
         <f>M102/E107</f>
-        <v>37.188380460101762</v>
+        <v>36.108389137150859</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3660,15 +3681,15 @@
       </c>
       <c r="L19" s="26">
         <f>M102/F3</f>
-        <v>8.348233293838863</v>
+        <v>8.1057914502369677</v>
       </c>
       <c r="M19" s="26">
         <f>M102/F28</f>
-        <v>29.687818398876406</v>
+        <v>28.825651617977528</v>
       </c>
       <c r="N19" s="27">
         <f>M102/F107</f>
-        <v>19.644727416356876</v>
+        <v>19.074223003717471</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3784,7 +3805,7 @@
       </c>
       <c r="N22" s="41">
         <f>F107/M102</f>
-        <v>5.0904244116279543E-2</v>
+        <v>5.2426775119757428E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5270,7 +5291,7 @@
       </c>
       <c r="M95" s="58">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8750000000000002E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5300,7 +5321,7 @@
       </c>
       <c r="M96" s="59" cm="1">
         <f t="array" ref="M96">_FV(A1,"Beta")</f>
-        <v>2.1160000000000001</v>
+        <v>2.1019999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5359,7 +5380,7 @@
       </c>
       <c r="M98" s="57">
         <f>(M95)+((M96)*(M97-M95))</f>
-        <v>0.12333900000000002</v>
+        <v>0.12619558</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5446,7 +5467,7 @@
       </c>
       <c r="M101" s="57">
         <f>M100/M104</f>
-        <v>7.7129465187285458E-4</v>
+        <v>7.9434552365795165E-4</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5476,7 +5497,7 @@
       </c>
       <c r="M102" s="61" cm="1">
         <f t="array" ref="M102">_FV(A1,"Market cap",TRUE)</f>
-        <v>5284431675</v>
+        <v>5130965988</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5506,7 +5527,7 @@
       </c>
       <c r="M103" s="57">
         <f>M102/M104</f>
-        <v>0.99922870534812713</v>
+        <v>0.99920565447634202</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5538,7 +5559,7 @@
       </c>
       <c r="M104" s="62">
         <f>M100+M102</f>
-        <v>5288510675</v>
+        <v>5135044988</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -5638,7 +5659,7 @@
       </c>
       <c r="M106" s="63">
         <f>(M101*M93)+(M103*M98)</f>
-        <v>0.12745902731477068</v>
+        <v>0.13043646912493012</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5695,7 +5716,7 @@
       <c r="I108" s="54"/>
       <c r="J108" s="49">
         <f>J107*(1+M108)/(M109-M108)</f>
-        <v>7773107171.4477005</v>
+        <v>7553600823.4145966</v>
       </c>
       <c r="K108" s="50" t="s">
         <v>151</v>
@@ -5726,7 +5747,7 @@
       </c>
       <c r="J109" s="49">
         <f>J108+J107</f>
-        <v>8550107171.4477005</v>
+        <v>8330600823.4145966</v>
       </c>
       <c r="K109" s="50" t="s">
         <v>146</v>
@@ -5736,7 +5757,7 @@
       </c>
       <c r="M109" s="38">
         <f>M106</f>
-        <v>0.12745902731477068</v>
+        <v>0.13043646912493012</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="19" x14ac:dyDescent="0.2">
@@ -5757,7 +5778,7 @@
       </c>
       <c r="G111" s="61">
         <f>NPV(M109,F109,G109,H109,I109,J109)</f>
-        <v>5894321168.516674</v>
+        <v>5705419052.726182</v>
       </c>
       <c r="H111" s="55"/>
       <c r="I111" s="55"/>
@@ -5802,7 +5823,7 @@
       </c>
       <c r="G114" s="61">
         <f>G111+G112-G113</f>
-        <v>6359629168.516674</v>
+        <v>6170727052.726182</v>
       </c>
       <c r="H114" s="55"/>
       <c r="I114" s="55"/>
@@ -5832,7 +5853,7 @@
       </c>
       <c r="G116" s="69">
         <f>G114/G115</f>
-        <v>20.488798529621594</v>
+        <v>19.880213140490586</v>
       </c>
       <c r="H116" s="55"/>
       <c r="I116" s="55"/>
@@ -5847,7 +5868,7 @@
       </c>
       <c r="G117" s="70" cm="1">
         <f t="array" ref="G117">_FV(A1,"Price")</f>
-        <v>18.25</v>
+        <v>17.72</v>
       </c>
       <c r="H117" s="55"/>
       <c r="I117" s="55"/>
@@ -5862,7 +5883,7 @@
       </c>
       <c r="G118" s="71">
         <f>G116/G117-1</f>
-        <v>0.12267389203405998</v>
+        <v>0.12190819077260651</v>
       </c>
       <c r="H118" s="55"/>
       <c r="I118" s="55"/>

--- a/Technology/Software/dLocal.xlsx
+++ b/Technology/Software/dLocal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955CA3A2-357E-1E48-896E-E939EA621F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF73D9D9-69B5-2B46-8C1B-CC98F5AD925F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1722,6 +1722,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1741,7 +1743,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1754,6 +1756,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1881,11 +1885,11 @@
     <v>Powered by Refinitiv</v>
     <v>24.216799999999999</v>
     <v>9.0399999999999991</v>
-    <v>2.0670000000000002</v>
-    <v>0.56999999999999995</v>
-    <v>3.3043000000000003E-2</v>
-    <v>-0.04</v>
-    <v>-2.245E-3</v>
+    <v>2.0680000000000001</v>
+    <v>-7.0000000000000007E-2</v>
+    <v>-4.1060000000000003E-3</v>
+    <v>-0.33</v>
+    <v>-1.9435000000000001E-2</v>
     <v>USD</v>
     <v>Dlocal Ltd, an Uruguay-based company, is focused on enabling global merchants to connect with emerging market users. The Company offers payment platform for emerging markets. Through the Company's direct application programming interface (API), one technology platform, and one contract, which is collectively referred as the One dLocal model. The Company enables global enterprise merchants to get paid (pay-in) and to make payments (pay-out) online in a safe and efficient manner. The Company's cloud-based platform powers both cross-border and local-to-local transactions in approximately 29 countries. The Company enables global merchants to connect with over 600 local payment methods across different geographies, which expands their addressable markets. It operates in different verticals and geographies. The Company's key verticals include retail, streaming, ride hailing, financial institutions, advertising, software as a service (SaaS), travel, e-learning and gaming.</v>
     <v>867</v>
@@ -1893,25 +1897,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>Dr Luis Bonavita, 1294, MONTEVIDEO, URUGUAY-NA, 11300 UY</v>
-    <v>18</v>
+    <v>17.420000000000002</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45261.989779363284</v>
+    <v>45269.034551562501</v>
     <v>0</v>
-    <v>17.094000000000001</v>
-    <v>5159922000</v>
+    <v>16.829999999999998</v>
+    <v>4916693142</v>
     <v>dLocal Ltd</v>
     <v>dLocal Ltd</v>
-    <v>17.239999999999998</v>
-    <v>38.4375</v>
-    <v>17.25</v>
-    <v>17.82</v>
-    <v>17.78</v>
+    <v>16.89</v>
+    <v>37.991900000000001</v>
+    <v>17.05</v>
+    <v>16.98</v>
+    <v>16.649999999999999</v>
     <v>289557900</v>
     <v>DLO</v>
     <v>dLocal Ltd (XNAS:DLO)</v>
-    <v>465939</v>
-    <v>1002077</v>
+    <v>662401</v>
+    <v>985268</v>
     <v>2021</v>
   </rv>
   <rv s="2">
@@ -2076,9 +2080,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -8760,7 +8764,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8813,7 +8817,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>5159922000</v>
+        <v>4916693142</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>192</v>
@@ -8833,15 +8837,15 @@
         <v>194</v>
       </c>
       <c r="G3" s="41">
-        <f>AVERAGE(Financials!E129:J129)</f>
-        <v>-3.1833319332481569E-3</v>
+        <f>AVERAGE(Financials!C129:J129)</f>
+        <v>-1.4862166710575275E-3</v>
       </c>
       <c r="H3" s="40" t="s">
         <v>195</v>
       </c>
       <c r="I3" s="42">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>11005566589.204493</v>
+        <v>10935190074.354572</v>
       </c>
       <c r="J3" s="43" t="s">
         <v>196</v>
@@ -8886,21 +8890,21 @@
       </c>
       <c r="G4" s="51">
         <f>A5*(1+(5*G3))</f>
-        <v>284949105.45202863</v>
+        <v>287406171.10891795</v>
       </c>
       <c r="H4" s="50" t="s">
         <v>202</v>
       </c>
       <c r="I4" s="52">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>8696040974.3926392</v>
+        <v>8634723030.6937313</v>
       </c>
       <c r="J4" s="50" t="s">
         <v>203</v>
       </c>
       <c r="K4" s="53" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>3.3043000000000003E-2</v>
+        <v>-4.1060000000000003E-3</v>
       </c>
       <c r="L4" s="54" t="s">
         <v>204</v>
@@ -8945,14 +8949,14 @@
       </c>
       <c r="I5" s="52">
         <f>I4+G5-G6</f>
-        <v>9293024974.3926392</v>
+        <v>9231707030.6937313</v>
       </c>
       <c r="J5" s="50" t="s">
         <v>210</v>
       </c>
       <c r="K5" s="56" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>17.82</v>
+        <v>16.98</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>211</v>
@@ -8972,7 +8976,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="60">
         <f>O20/F10</f>
-        <v>8.0372616822429901</v>
+        <v>7.6584005327102807</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>213</v>
@@ -9000,14 +9004,14 @@
       </c>
       <c r="I6" s="53">
         <f>N25</f>
-        <v>9.699311308308306E-2</v>
+        <v>9.7456445165793368E-2</v>
       </c>
       <c r="J6" s="50" t="s">
         <v>216</v>
       </c>
       <c r="K6" s="61">
         <f>I5/G4</f>
-        <v>32.612929104131283</v>
+        <v>32.120768301788495</v>
       </c>
       <c r="L6" s="62" t="s">
         <v>217</v>
@@ -9027,14 +9031,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="63">
         <f>O20/F12</f>
-        <v>29.48526857142857</v>
+        <v>28.095389382857142</v>
       </c>
       <c r="B7" s="64" t="s">
         <v>219</v>
       </c>
       <c r="C7" s="65">
         <f>F15/A3</f>
-        <v>5.232637237539637E-2</v>
+        <v>5.4914958530474831E-2</v>
       </c>
       <c r="D7" s="64" t="s">
         <v>220</v>
@@ -9061,7 +9065,7 @@
       </c>
       <c r="K7" s="71">
         <f>K6/K5-1</f>
-        <v>0.83013070169086878</v>
+        <v>0.89168246771428117</v>
       </c>
       <c r="L7" s="72" t="s">
         <v>223</v>
@@ -9388,7 +9392,7 @@
       </c>
       <c r="O14" s="91">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="46"/>
       <c r="Q14" s="46"/>
@@ -9540,7 +9544,7 @@
       </c>
       <c r="O17" s="100">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.762570000000001E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="46"/>
       <c r="Q17" s="46"/>
@@ -9623,7 +9627,7 @@
       </c>
       <c r="O20" s="106">
         <f>A3</f>
-        <v>5159922000</v>
+        <v>4916693142</v>
       </c>
       <c r="P20" s="46"/>
       <c r="Q20" s="46"/>
@@ -9653,7 +9657,7 @@
       </c>
       <c r="O21" s="106">
         <f>O19+O20</f>
-        <v>5163889000</v>
+        <v>4920660142</v>
       </c>
       <c r="P21" s="46"/>
       <c r="Q21" s="46"/>
@@ -9681,7 +9685,7 @@
       </c>
       <c r="O22" s="108">
         <f>(O19/O21)</f>
-        <v>7.6821945630512194E-4</v>
+        <v>8.0619264194653657E-4</v>
       </c>
       <c r="P22" s="46"/>
       <c r="Q22" s="46"/>
@@ -9706,7 +9710,7 @@
       </c>
       <c r="O23" s="109">
         <f>O20/O21</f>
-        <v>0.99923178054369488</v>
+        <v>0.99919380735805341</v>
       </c>
       <c r="P23" s="46"/>
       <c r="Q23" s="46"/>
@@ -9750,7 +9754,7 @@
       <c r="M25" s="74"/>
       <c r="N25" s="114">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.699311308308306E-2</v>
+        <v>9.7456445165793368E-2</v>
       </c>
       <c r="O25" s="115"/>
       <c r="P25" s="46"/>
